--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM10.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.224374592436724</v>
+        <v>0.2720832427637162</v>
       </c>
       <c r="C2">
-        <v>31.20650488515025</v>
+        <v>6.934778863366719</v>
       </c>
       <c r="D2">
-        <v>0.007263999354664404</v>
+        <v>0.001614222078814312</v>
       </c>
       <c r="E2">
-        <v>2.627398230946367</v>
+        <v>0.5838662735436371</v>
       </c>
       <c r="F2">
-        <v>2.325004352254578</v>
+        <v>0.5166676338343505</v>
       </c>
       <c r="G2">
-        <v>15.71139381177903</v>
+        <v>3.491420847062006</v>
       </c>
       <c r="H2">
-        <v>0.3364851751083435</v>
+        <v>0.07477448335740967</v>
       </c>
       <c r="I2">
-        <v>9.483465413753141</v>
+        <v>2.10743675861181</v>
       </c>
       <c r="J2">
-        <v>2.8065323014991</v>
+        <v>0.6236738447775779</v>
       </c>
       <c r="K2">
-        <v>14.13472994623907</v>
+        <v>3.141051099164237</v>
       </c>
       <c r="L2">
-        <v>5.54426788326295</v>
+        <v>1.23205952961399</v>
       </c>
       <c r="M2">
-        <v>33.76903884849064</v>
+        <v>7.504230855220144</v>
       </c>
       <c r="N2">
-        <v>0.1032290607642464</v>
+        <v>0.02293979128094366</v>
       </c>
       <c r="O2">
-        <v>1.631443111670737</v>
+        <v>0.3625429137046082</v>
       </c>
       <c r="P2">
-        <v>120.9111316127098</v>
+        <v>26.86914035837997</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.258430044676685</v>
+        <v>0.2796511210392633</v>
       </c>
       <c r="C3">
-        <v>32.07450038526702</v>
+        <v>7.127666752281557</v>
       </c>
       <c r="D3">
-        <v>0.009158955708055116</v>
+        <v>0.002035323490678915</v>
       </c>
       <c r="E3">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="F3">
-        <v>1.77143188743206</v>
+        <v>0.3936515305404578</v>
       </c>
       <c r="G3">
-        <v>11.97058576135545</v>
+        <v>2.6601301691901</v>
       </c>
       <c r="H3">
-        <v>0.2557287330823411</v>
+        <v>0.05682860735163134</v>
       </c>
       <c r="I3">
-        <v>7.207433714452388</v>
+        <v>1.601651936544975</v>
       </c>
       <c r="J3">
-        <v>2.703350966885162</v>
+        <v>0.6007446593078138</v>
       </c>
       <c r="K3">
-        <v>13.6150707570391</v>
+        <v>3.025571279342022</v>
       </c>
       <c r="L3">
-        <v>4.654447111875071</v>
+        <v>1.034321580416683</v>
       </c>
       <c r="M3">
-        <v>28.34931656416498</v>
+        <v>6.299848125369997</v>
       </c>
       <c r="N3">
-        <v>0.06451816297765402</v>
+        <v>0.01433736955058979</v>
       </c>
       <c r="O3">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="P3">
-        <v>108.2664314548165</v>
+        <v>24.05920698995921</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.285998744109035</v>
+        <v>0.2857774986908966</v>
       </c>
       <c r="C4">
-        <v>32.77716340917106</v>
+        <v>7.2838140909269</v>
       </c>
       <c r="D4">
-        <v>0.01010643388475047</v>
+        <v>0.002245874196611216</v>
       </c>
       <c r="E4">
-        <v>3.65551058218625</v>
+        <v>0.8123356849302777</v>
       </c>
       <c r="F4">
-        <v>1.273216669091793</v>
+        <v>0.282937037575954</v>
       </c>
       <c r="G4">
-        <v>8.603858515974228</v>
+        <v>1.911968559105385</v>
       </c>
       <c r="H4">
-        <v>0.3499445821126772</v>
+        <v>0.07776546269170606</v>
       </c>
       <c r="I4">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="J4">
-        <v>2.55889709842565</v>
+        <v>0.5686437996501448</v>
       </c>
       <c r="K4">
-        <v>12.88754789215915</v>
+        <v>2.863899531590922</v>
       </c>
       <c r="L4">
-        <v>2.327223555937536</v>
+        <v>0.5171607902083414</v>
       </c>
       <c r="M4">
-        <v>14.17465828208249</v>
+        <v>3.149924062684998</v>
       </c>
       <c r="N4">
-        <v>0.06451816297765402</v>
+        <v>0.01433736955058979</v>
       </c>
       <c r="O4">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="P4">
-        <v>90.85109990320974</v>
+        <v>20.18913331182439</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.396273541838435</v>
+        <v>0.3102830092974302</v>
       </c>
       <c r="C5">
-        <v>35.58781550478724</v>
+        <v>7.908403445508276</v>
       </c>
       <c r="D5">
-        <v>0.009158955708055116</v>
+        <v>0.002035323490678915</v>
       </c>
       <c r="E5">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="F5">
-        <v>1.992860873361067</v>
+        <v>0.442857971858015</v>
       </c>
       <c r="G5">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H5">
-        <v>0.4172416171343458</v>
+        <v>0.09272035936318798</v>
       </c>
       <c r="I5">
-        <v>11.7594971130539</v>
+        <v>2.613221580678643</v>
       </c>
       <c r="J5">
-        <v>1.89853655689645</v>
+        <v>0.4218970126436555</v>
       </c>
       <c r="K5">
-        <v>9.561729081279367</v>
+        <v>2.124828684728749</v>
       </c>
       <c r="L5">
-        <v>1.505850536194876</v>
+        <v>0.3346334524877502</v>
       </c>
       <c r="M5">
-        <v>9.171837711935732</v>
+        <v>2.03818615820794</v>
       </c>
       <c r="N5">
-        <v>0.1032290607642464</v>
+        <v>0.02293979128094366</v>
       </c>
       <c r="O5">
-        <v>1.631443111670737</v>
+        <v>0.3625429137046082</v>
       </c>
       <c r="P5">
-        <v>91.81518911125563</v>
+        <v>20.4033753580568</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.67520391256574</v>
+        <v>0.3722675361257204</v>
       </c>
       <c r="C6">
-        <v>42.69711198193404</v>
+        <v>9.488247107096454</v>
       </c>
       <c r="D6">
-        <v>0.01042225994364892</v>
+        <v>0.002316057765255316</v>
       </c>
       <c r="E6">
-        <v>3.76974528787957</v>
+        <v>0.837721175084349</v>
       </c>
       <c r="F6">
-        <v>1.826789133914311</v>
+        <v>0.4059531408698472</v>
       </c>
       <c r="G6">
-        <v>12.34466656639781</v>
+        <v>2.743259236977292</v>
       </c>
       <c r="H6">
-        <v>0.2961069540953423</v>
+        <v>0.0658015453545205</v>
       </c>
       <c r="I6">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="J6">
-        <v>1.506447485363487</v>
+        <v>0.3347661078585527</v>
       </c>
       <c r="K6">
-        <v>7.587024162319497</v>
+        <v>1.686005369404334</v>
       </c>
       <c r="L6">
-        <v>0.8898207713878811</v>
+        <v>0.1977379491973069</v>
       </c>
       <c r="M6">
-        <v>5.419722284325657</v>
+        <v>1.204382729850146</v>
       </c>
       <c r="N6">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O6">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P6">
-        <v>86.8021784073385</v>
+        <v>19.28937297940855</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.453032628905038</v>
+        <v>0.3228961397566754</v>
       </c>
       <c r="C7">
-        <v>37.0344746716485</v>
+        <v>8.229883260366336</v>
       </c>
       <c r="D7">
-        <v>0.002210782412289166</v>
+        <v>0.0004912849805087036</v>
       </c>
       <c r="E7">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="F7">
-        <v>1.77143188743206</v>
+        <v>0.3936515305404578</v>
       </c>
       <c r="G7">
-        <v>11.97058576135545</v>
+        <v>2.6601301691901</v>
       </c>
       <c r="H7">
-        <v>0.4710792451516809</v>
+        <v>0.1046842767003735</v>
       </c>
       <c r="I7">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="J7">
-        <v>0.866723210757075</v>
+        <v>0.1926051579460167</v>
       </c>
       <c r="K7">
-        <v>4.365137189279711</v>
+        <v>0.9700304865066025</v>
       </c>
       <c r="L7">
-        <v>0.6844775164522163</v>
+        <v>0.1521061147671592</v>
       </c>
       <c r="M7">
-        <v>4.169017141788967</v>
+        <v>0.926448253730882</v>
       </c>
       <c r="N7">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O7">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P7">
-        <v>77.29833259739939</v>
+        <v>17.17740724386653</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.159507064360606</v>
+        <v>0.2576682365245789</v>
       </c>
       <c r="C8">
-        <v>29.55318012302306</v>
+        <v>6.567373360671793</v>
       </c>
       <c r="D8">
-        <v>0.00821147753135976</v>
+        <v>0.001824772784746614</v>
       </c>
       <c r="E8">
-        <v>2.970102348026328</v>
+        <v>0.6600227440058506</v>
       </c>
       <c r="F8">
-        <v>0.9410731901982817</v>
+        <v>0.2091273755996182</v>
       </c>
       <c r="G8">
-        <v>6.359373685720086</v>
+        <v>1.41319415238224</v>
       </c>
       <c r="H8">
-        <v>0.3903228031256784</v>
+        <v>0.08673840069459521</v>
       </c>
       <c r="I8">
-        <v>11.00081987995365</v>
+        <v>2.444626639989699</v>
       </c>
       <c r="J8">
-        <v>0.9905408122937999</v>
+        <v>0.2201201805097333</v>
       </c>
       <c r="K8">
-        <v>4.98872821631967</v>
+        <v>1.10860627029326</v>
       </c>
       <c r="L8">
-        <v>0.8213730197426595</v>
+        <v>0.182527337720591</v>
       </c>
       <c r="M8">
-        <v>5.002820570146761</v>
+        <v>1.111737904477058</v>
       </c>
       <c r="N8">
-        <v>0.05161453038212322</v>
+        <v>0.01146989564047183</v>
       </c>
       <c r="O8">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="P8">
-        <v>65.05338927665943</v>
+        <v>14.45630872814654</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.01842019079505</v>
+        <v>0.2263155979544554</v>
       </c>
       <c r="C9">
-        <v>25.95719876539649</v>
+        <v>5.768266392310331</v>
       </c>
       <c r="D9">
-        <v>0.01263304235593809</v>
+        <v>0.00280734274576402</v>
       </c>
       <c r="E9">
-        <v>4.569388227732811</v>
+        <v>1.015419606162847</v>
       </c>
       <c r="F9">
-        <v>1.107144929645037</v>
+        <v>0.246032206587786</v>
       </c>
       <c r="G9">
-        <v>7.481616100847157</v>
+        <v>1.662581355743813</v>
       </c>
       <c r="H9">
-        <v>0.5922139081906845</v>
+        <v>0.131603090709041</v>
       </c>
       <c r="I9">
-        <v>16.69089912820554</v>
+        <v>3.709088695156786</v>
       </c>
       <c r="J9">
-        <v>0.5984517407608375</v>
+        <v>0.1329892757246306</v>
       </c>
       <c r="K9">
-        <v>3.014023297359801</v>
+        <v>0.6697829549688448</v>
       </c>
       <c r="L9">
-        <v>1.163611777968768</v>
+        <v>0.2585803951041707</v>
       </c>
       <c r="M9">
-        <v>7.087329141041244</v>
+        <v>1.574962031342499</v>
       </c>
       <c r="N9">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O9">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P9">
-        <v>69.7265982934081</v>
+        <v>15.49479962075736</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.8967935756523284</v>
+        <v>0.199287461256073</v>
       </c>
       <c r="C10">
-        <v>22.85721483640805</v>
+        <v>5.079381074757349</v>
       </c>
       <c r="D10">
-        <v>0.005369043001273689</v>
+        <v>0.001193120666949709</v>
       </c>
       <c r="E10">
-        <v>1.941989996786445</v>
+        <v>0.4315533326192101</v>
       </c>
       <c r="F10">
-        <v>0.830358697233778</v>
+        <v>0.1845241549408396</v>
       </c>
       <c r="G10">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="H10">
-        <v>0.363403989117011</v>
+        <v>0.08075644202600243</v>
       </c>
       <c r="I10">
-        <v>10.2421426468534</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="J10">
-        <v>0.5778154738380499</v>
+        <v>0.1284034386306778</v>
       </c>
       <c r="K10">
-        <v>2.910091459519808</v>
+        <v>0.6466869910044017</v>
       </c>
       <c r="L10">
-        <v>0.616029764806995</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M10">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="N10">
-        <v>0.07742179557318483</v>
+        <v>0.01720484346070775</v>
       </c>
       <c r="O10">
-        <v>1.223582333753053</v>
+        <v>0.2719071852784563</v>
       </c>
       <c r="P10">
-        <v>51.90554111578881</v>
+        <v>11.53456469239752</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.5059667189937187</v>
+        <v>0.1124370486652708</v>
       </c>
       <c r="C11">
-        <v>12.89593314459189</v>
+        <v>2.86576292102042</v>
       </c>
       <c r="D11">
-        <v>0.002526608471187618</v>
+        <v>0.000561468549152804</v>
       </c>
       <c r="E11">
-        <v>0.9138776455465625</v>
+        <v>0.2030839212325694</v>
       </c>
       <c r="F11">
-        <v>0.2767862324112593</v>
+        <v>0.0615080516469465</v>
       </c>
       <c r="G11">
-        <v>1.870404025211789</v>
+        <v>0.4156453389359533</v>
       </c>
       <c r="H11">
-        <v>0.2422693260780073</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I11">
-        <v>6.828095097902262</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J11">
-        <v>0.5159066730696873</v>
+        <v>0.1146459273488194</v>
       </c>
       <c r="K11">
-        <v>2.598295945999828</v>
+        <v>0.577399099111073</v>
       </c>
       <c r="L11">
-        <v>0.3422387582261082</v>
+        <v>0.07605305738357961</v>
       </c>
       <c r="M11">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="N11">
-        <v>0.06451816297765402</v>
+        <v>0.01433736955058979</v>
       </c>
       <c r="O11">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="P11">
-        <v>30.16097885516866</v>
+        <v>6.702439745593034</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.3470412752072301</v>
+        <v>0.07712028337938447</v>
       </c>
       <c r="C12">
-        <v>8.845287477380332</v>
+        <v>1.965619439417853</v>
       </c>
       <c r="D12">
-        <v>0.002526608471187618</v>
+        <v>0.000561468549152804</v>
       </c>
       <c r="E12">
-        <v>0.9138776455465625</v>
+        <v>0.2030839212325694</v>
       </c>
       <c r="F12">
-        <v>0.2214289859290074</v>
+        <v>0.04920644131755723</v>
       </c>
       <c r="G12">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="H12">
-        <v>0.09421584903033614</v>
+        <v>0.02093685534007471</v>
       </c>
       <c r="I12">
-        <v>2.65537031585088</v>
+        <v>0.5900822924113066</v>
       </c>
       <c r="J12">
-        <v>0.24763520307345</v>
+        <v>0.05503004512743333</v>
       </c>
       <c r="K12">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="L12">
-        <v>0.2737910065808865</v>
+        <v>0.06084244590686365</v>
       </c>
       <c r="M12">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="N12">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O12">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P12">
-        <v>18.44595454114355</v>
+        <v>4.099101009143014</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.2140628426511889</v>
+        <v>0.04756952058915305</v>
       </c>
       <c r="C13">
-        <v>5.455971715019643</v>
+        <v>1.212438158893254</v>
       </c>
       <c r="D13">
-        <v>0.002210782412289166</v>
+        <v>0.0004912849805087036</v>
       </c>
       <c r="E13">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="F13">
-        <v>0.05535724648225186</v>
+        <v>0.01230161032938931</v>
       </c>
       <c r="G13">
-        <v>0.3740808050423579</v>
+        <v>0.08312906778719063</v>
       </c>
       <c r="J13">
-        <v>0.2269989361506625</v>
+        <v>0.05044420803348055</v>
       </c>
       <c r="K13">
-        <v>1.143250216239925</v>
+        <v>0.2540556036088721</v>
       </c>
       <c r="L13">
-        <v>0.2053432549356649</v>
+        <v>0.04563183443014776</v>
       </c>
       <c r="M13">
-        <v>1.25070514253669</v>
+        <v>0.2779344761192645</v>
       </c>
       <c r="N13">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O13">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P13">
-        <v>9.944457902878288</v>
+        <v>2.209879533972953</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.1735206376036151</v>
+        <v>0.03856014168969223</v>
       </c>
       <c r="C14">
-        <v>4.422643738690166</v>
+        <v>0.9828097197089263</v>
       </c>
       <c r="D14">
-        <v>0.00284243453008607</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E14">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F14">
-        <v>0.2767862324112593</v>
+        <v>0.0615080516469465</v>
       </c>
       <c r="G14">
-        <v>1.870404025211789</v>
+        <v>0.4156453389359533</v>
       </c>
       <c r="J14">
-        <v>0.2889077369190249</v>
+        <v>0.06420171931533888</v>
       </c>
       <c r="K14">
-        <v>1.455045729759904</v>
+        <v>0.3233434955022009</v>
       </c>
       <c r="L14">
-        <v>0.2053432549356649</v>
+        <v>0.04563183443014776</v>
       </c>
       <c r="M14">
-        <v>1.25070514253669</v>
+        <v>0.2779344761192645</v>
       </c>
       <c r="N14">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O14">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P14">
-        <v>11.40797932694683</v>
+        <v>2.535106517099296</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,37 +1118,37 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.1297350561522355</v>
+        <v>0.02883001247827456</v>
       </c>
       <c r="C15">
-        <v>3.306649524254329</v>
+        <v>0.7348110053898514</v>
       </c>
       <c r="D15">
-        <v>0.001579130294492261</v>
+        <v>0.0003509178432205025</v>
       </c>
       <c r="E15">
-        <v>0.5711735284666014</v>
+        <v>0.1269274507703559</v>
       </c>
       <c r="F15">
-        <v>0.1107144929645037</v>
+        <v>0.02460322065877861</v>
       </c>
       <c r="G15">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="J15">
-        <v>0.1857264023050875</v>
+        <v>0.041272533845575</v>
       </c>
       <c r="K15">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="L15">
-        <v>0.4106865098713298</v>
+        <v>0.09126366886029552</v>
       </c>
       <c r="M15">
-        <v>2.50141028507338</v>
+        <v>0.5558689522385291</v>
       </c>
       <c r="P15">
-        <v>8.901223080026613</v>
+        <v>1.978049573339248</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,43 +1156,43 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1118964859313032</v>
+        <v>0.02486588576251183</v>
       </c>
       <c r="C16">
-        <v>2.851985214669359</v>
+        <v>0.633774492148747</v>
       </c>
       <c r="D16">
-        <v>0.001579130294492261</v>
+        <v>0.0003509178432205025</v>
       </c>
       <c r="E16">
-        <v>0.5711735284666014</v>
+        <v>0.1269274507703559</v>
       </c>
       <c r="F16">
-        <v>0.1107144929645037</v>
+        <v>0.02460322065877861</v>
       </c>
       <c r="G16">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="H16">
-        <v>0.06729703502166867</v>
+        <v>0.01495489667148194</v>
       </c>
       <c r="I16">
-        <v>1.896693082750628</v>
+        <v>0.4214873517223619</v>
       </c>
       <c r="J16">
-        <v>0.1650901353823</v>
+        <v>0.03668669675162222</v>
       </c>
       <c r="K16">
-        <v>0.8314547027199449</v>
+        <v>0.1847677117155433</v>
       </c>
       <c r="L16">
-        <v>0.3422387582261082</v>
+        <v>0.07605305738357961</v>
       </c>
       <c r="M16">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="P16">
-        <v>9.782792747406109</v>
+        <v>2.173953943868025</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,43 +1200,43 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.2140628426511889</v>
+        <v>0.04756952058915305</v>
       </c>
       <c r="C17">
-        <v>5.455971715019643</v>
+        <v>1.212438158893254</v>
       </c>
       <c r="D17">
-        <v>0.001894956353390714</v>
+        <v>0.0004211014118646031</v>
       </c>
       <c r="E17">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="F17">
-        <v>0.4428579718580149</v>
+        <v>0.09841288263511445</v>
       </c>
       <c r="G17">
-        <v>2.992646440338863</v>
+        <v>0.6650325422975251</v>
       </c>
       <c r="H17">
-        <v>0.01345940700433374</v>
+        <v>0.002990979334296387</v>
       </c>
       <c r="I17">
-        <v>0.3793386165501257</v>
+        <v>0.08429747034447239</v>
       </c>
       <c r="J17">
-        <v>0.3301802707645999</v>
+        <v>0.07337339350324444</v>
       </c>
       <c r="K17">
-        <v>1.66290940543989</v>
+        <v>0.3695354234310867</v>
       </c>
       <c r="L17">
-        <v>0.3422387582261082</v>
+        <v>0.07605305738357961</v>
       </c>
       <c r="M17">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="P17">
-        <v>14.60547718926056</v>
+        <v>3.245661597613459</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,49 +1244,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.7135428088372956</v>
+        <v>0.15856506863051</v>
       </c>
       <c r="C18">
-        <v>18.18657238339883</v>
+        <v>4.041460529644182</v>
       </c>
       <c r="D18">
-        <v>0.00284243453008607</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E18">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F18">
-        <v>1.273216669091793</v>
+        <v>0.282937037575954</v>
       </c>
       <c r="G18">
-        <v>8.603858515974228</v>
+        <v>1.911968559105385</v>
       </c>
       <c r="H18">
-        <v>0.1076752560346699</v>
+        <v>0.0239278346743711</v>
       </c>
       <c r="I18">
-        <v>3.034708932401005</v>
+        <v>0.6743797627557792</v>
       </c>
       <c r="J18">
-        <v>1.011177079216588</v>
+        <v>0.2247060176036861</v>
       </c>
       <c r="K18">
-        <v>5.092660054159663</v>
+        <v>1.131702234257703</v>
       </c>
       <c r="L18">
-        <v>1.30050728125921</v>
+        <v>0.2890016180576023</v>
       </c>
       <c r="M18">
-        <v>7.921132569399039</v>
+        <v>1.760251682088676</v>
       </c>
       <c r="N18">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O18">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P18">
-        <v>48.49284035709667</v>
+        <v>10.77618674602148</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1294,49 +1294,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.131938364928255</v>
+        <v>0.2515418588729455</v>
       </c>
       <c r="C19">
-        <v>28.85051709911903</v>
+        <v>6.411226022026455</v>
       </c>
       <c r="D19">
-        <v>0.002210782412289166</v>
+        <v>0.0004912849805087036</v>
       </c>
       <c r="E19">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="F19">
-        <v>1.439288408538548</v>
+        <v>0.3198418685641219</v>
       </c>
       <c r="G19">
-        <v>9.726100931101303</v>
+        <v>2.161355762466957</v>
       </c>
       <c r="H19">
-        <v>0.578754501186351</v>
+        <v>0.1286121113747446</v>
       </c>
       <c r="I19">
-        <v>16.31156051165541</v>
+        <v>3.624791224812312</v>
       </c>
       <c r="J19">
-        <v>1.712810154591362</v>
+        <v>0.3806244787980805</v>
       </c>
       <c r="K19">
-        <v>8.626342540719429</v>
+        <v>1.916965009048762</v>
       </c>
       <c r="L19">
-        <v>1.984984797711428</v>
+        <v>0.4411077328247617</v>
       </c>
       <c r="M19">
-        <v>12.090149711188</v>
+        <v>2.686699935819557</v>
       </c>
       <c r="N19">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O19">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P19">
-        <v>83.90480280766778</v>
+        <v>18.64551173503729</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1344,43 +1344,43 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.375191595213697</v>
+        <v>0.3055981322697103</v>
       </c>
       <c r="C20">
-        <v>35.0504849570959</v>
+        <v>7.788996657132425</v>
       </c>
       <c r="D20">
-        <v>0.005369043001273689</v>
+        <v>0.001193120666949709</v>
       </c>
       <c r="E20">
-        <v>1.941989996786445</v>
+        <v>0.4315533326192101</v>
       </c>
       <c r="F20">
-        <v>1.162502176127289</v>
+        <v>0.2583338169171753</v>
       </c>
       <c r="G20">
-        <v>7.855696905889514</v>
+        <v>1.745710423531003</v>
       </c>
       <c r="H20">
-        <v>0.5114574661646821</v>
+        <v>0.1136572147032627</v>
       </c>
       <c r="I20">
-        <v>14.41486742890478</v>
+        <v>3.20330387308995</v>
       </c>
       <c r="J20">
-        <v>1.341357349981187</v>
+        <v>0.2980794111069305</v>
       </c>
       <c r="K20">
-        <v>6.755569459599553</v>
+        <v>1.50123765768879</v>
       </c>
       <c r="L20">
-        <v>1.505850536194876</v>
+        <v>0.3346334524877502</v>
       </c>
       <c r="M20">
-        <v>9.171837711935732</v>
+        <v>2.03818615820794</v>
       </c>
       <c r="P20">
-        <v>81.09217462689493</v>
+        <v>18.0204832504211</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1388,49 +1388,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.482223016539292</v>
+        <v>0.329382892564287</v>
       </c>
       <c r="C21">
-        <v>37.77847081460573</v>
+        <v>8.395215736579051</v>
       </c>
       <c r="D21">
-        <v>0.007263999354664404</v>
+        <v>0.001614222078814312</v>
       </c>
       <c r="E21">
-        <v>2.627398230946367</v>
+        <v>0.5838662735436371</v>
       </c>
       <c r="F21">
-        <v>1.882146380396563</v>
+        <v>0.4182547511992363</v>
       </c>
       <c r="G21">
-        <v>12.71874737144017</v>
+        <v>2.826388304764481</v>
       </c>
       <c r="H21">
-        <v>0.4172416171343458</v>
+        <v>0.09272035936318798</v>
       </c>
       <c r="I21">
-        <v>11.7594971130539</v>
+        <v>2.613221580678643</v>
       </c>
       <c r="J21">
-        <v>1.609628819977425</v>
+        <v>0.3576952933283167</v>
       </c>
       <c r="K21">
-        <v>8.106683351519463</v>
+        <v>1.801485189226548</v>
       </c>
       <c r="L21">
-        <v>1.848089294420984</v>
+        <v>0.4106865098713298</v>
       </c>
       <c r="M21">
-        <v>11.25634628283021</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="N21">
-        <v>0.1161326933597773</v>
+        <v>0.02580726519106162</v>
       </c>
       <c r="O21">
-        <v>1.835373500629579</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P21">
-        <v>93.44524248620849</v>
+        <v>20.76560944137966</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1438,49 +1438,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.30545900253187</v>
+        <v>0.2901020005626378</v>
       </c>
       <c r="C22">
-        <v>33.27316083780921</v>
+        <v>7.39403574173538</v>
       </c>
       <c r="D22">
-        <v>0.01010643388475047</v>
+        <v>0.002245874196611216</v>
       </c>
       <c r="E22">
-        <v>3.65551058218625</v>
+        <v>0.8123356849302777</v>
       </c>
       <c r="F22">
-        <v>2.435718845219083</v>
+        <v>0.5412708544931293</v>
       </c>
       <c r="G22">
-        <v>16.45955542186375</v>
+        <v>3.657678982636388</v>
       </c>
       <c r="H22">
-        <v>0.3499445821126772</v>
+        <v>0.07776546269170606</v>
       </c>
       <c r="I22">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="J22">
-        <v>2.641442166116799</v>
+        <v>0.5869871480259555</v>
       </c>
       <c r="K22">
-        <v>13.30327524351912</v>
+        <v>2.956283387448694</v>
       </c>
       <c r="L22">
-        <v>4.17531285035852</v>
+        <v>0.9278473000796709</v>
       </c>
       <c r="M22">
-        <v>25.4310045649127</v>
+        <v>5.651334347758377</v>
       </c>
       <c r="N22">
-        <v>0.05161453038212322</v>
+        <v>0.01146989564047183</v>
       </c>
       <c r="O22">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="P22">
-        <v>113.7706306470355</v>
+        <v>25.28236236600788</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1488,49 +1488,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.089774471678779</v>
+        <v>0.2421721048175064</v>
       </c>
       <c r="C23">
-        <v>27.77585600373636</v>
+        <v>6.172412445274749</v>
       </c>
       <c r="D23">
-        <v>0.009158955708055116</v>
+        <v>0.002035323490678915</v>
       </c>
       <c r="E23">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="F23">
-        <v>1.162502176127289</v>
+        <v>0.2583338169171753</v>
       </c>
       <c r="G23">
-        <v>7.855696905889514</v>
+        <v>1.745710423531003</v>
       </c>
       <c r="H23">
-        <v>0.3095663610996759</v>
+        <v>0.06879252468881693</v>
       </c>
       <c r="I23">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="J23">
-        <v>2.785896034576312</v>
+        <v>0.619088007683625</v>
       </c>
       <c r="K23">
-        <v>14.03079810839907</v>
+        <v>3.117955135199794</v>
       </c>
       <c r="L23">
-        <v>5.338924628327284</v>
+        <v>1.186427695183841</v>
       </c>
       <c r="M23">
-        <v>32.51833370595395</v>
+        <v>7.226296379100877</v>
       </c>
       <c r="N23">
-        <v>0.1032290607642464</v>
+        <v>0.02293979128094366</v>
       </c>
       <c r="O23">
-        <v>1.631443111670737</v>
+        <v>0.3625429137046082</v>
       </c>
       <c r="P23">
-        <v>106.6487741696905</v>
+        <v>23.69972759326455</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1538,49 +1538,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.01355512618934</v>
+        <v>0.22523447248652</v>
       </c>
       <c r="C24">
-        <v>25.83319940823696</v>
+        <v>5.740710979608215</v>
       </c>
       <c r="D24">
-        <v>0.009158955708055116</v>
+        <v>0.002035323490678915</v>
       </c>
       <c r="E24">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="F24">
-        <v>1.328573915574045</v>
+        <v>0.2952386479053432</v>
       </c>
       <c r="G24">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="H24">
-        <v>0.2961069540953423</v>
+        <v>0.0658015453545205</v>
       </c>
       <c r="I24">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="J24">
-        <v>2.662078433039587</v>
+        <v>0.5915729851199082</v>
       </c>
       <c r="K24">
-        <v>13.40720708135911</v>
+        <v>2.979379351413137</v>
       </c>
       <c r="L24">
-        <v>6.36564090300561</v>
+        <v>1.414586867334579</v>
       </c>
       <c r="M24">
-        <v>38.7718594186374</v>
+        <v>8.615968759697198</v>
       </c>
       <c r="N24">
-        <v>0.06451816297765402</v>
+        <v>0.01433736955058979</v>
       </c>
       <c r="O24">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="P24">
-        <v>111.407745653843</v>
+        <v>24.7572768119651</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1588,49 +1588,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.088152783476876</v>
+        <v>0.2418117296615279</v>
       </c>
       <c r="C25">
-        <v>27.73452288468319</v>
+        <v>6.163227307707379</v>
       </c>
       <c r="D25">
-        <v>0.01231721629703964</v>
+        <v>0.00273715917711992</v>
       </c>
       <c r="E25">
-        <v>4.455153522039491</v>
+        <v>0.990034116008776</v>
       </c>
       <c r="F25">
-        <v>1.605360147985304</v>
+        <v>0.3567466995522897</v>
       </c>
       <c r="G25">
-        <v>10.84834334622838</v>
+        <v>2.410742965828528</v>
       </c>
       <c r="H25">
-        <v>0.3095663610996759</v>
+        <v>0.06879252468881693</v>
       </c>
       <c r="I25">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="J25">
-        <v>2.187444293815475</v>
+        <v>0.4860987319589944</v>
       </c>
       <c r="K25">
-        <v>11.01677481103927</v>
+        <v>2.448172180230949</v>
       </c>
       <c r="L25">
-        <v>6.570984157941276</v>
+        <v>1.460218701764728</v>
       </c>
       <c r="M25">
-        <v>40.02256456117409</v>
+        <v>8.893903235816465</v>
       </c>
       <c r="N25">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O25">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P25">
-        <v>114.7928062879873</v>
+        <v>25.50951250844163</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1638,49 +1638,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.211401086821499</v>
+        <v>0.2692002415158888</v>
       </c>
       <c r="C26">
-        <v>30.87583993272481</v>
+        <v>6.861297762827734</v>
       </c>
       <c r="D26">
-        <v>0.01484382476822726</v>
+        <v>0.003298627726272724</v>
       </c>
       <c r="E26">
-        <v>5.369031167586055</v>
+        <v>1.193118037241345</v>
       </c>
       <c r="F26">
-        <v>2.103575366325571</v>
+        <v>0.4674611925167936</v>
       </c>
       <c r="G26">
-        <v>14.2150705916096</v>
+        <v>3.158904575913243</v>
       </c>
       <c r="H26">
-        <v>0.2826475470910085</v>
+        <v>0.06281056602022411</v>
       </c>
       <c r="I26">
-        <v>7.96611094755264</v>
+        <v>1.77024687723392</v>
       </c>
       <c r="J26">
-        <v>2.55889709842565</v>
+        <v>0.5686437996501448</v>
       </c>
       <c r="K26">
-        <v>12.88754789215915</v>
+        <v>2.863899531590922</v>
       </c>
       <c r="L26">
-        <v>6.091849896424725</v>
+        <v>1.353744421427716</v>
       </c>
       <c r="M26">
-        <v>37.10425256192182</v>
+        <v>8.245389458204844</v>
       </c>
       <c r="N26">
-        <v>0.05161453038212322</v>
+        <v>0.01146989564047183</v>
       </c>
       <c r="O26">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="P26">
-        <v>121.5484039996282</v>
+        <v>27.01075644436182</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1688,49 +1688,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.196805893004372</v>
+        <v>0.265956865112083</v>
       </c>
       <c r="C27">
-        <v>30.5038418612462</v>
+        <v>6.778631524721376</v>
       </c>
       <c r="D27">
-        <v>0.01358052053263345</v>
+        <v>0.003017893451696322</v>
       </c>
       <c r="E27">
-        <v>4.912092344812774</v>
+        <v>1.091576076625061</v>
       </c>
       <c r="F27">
-        <v>1.937503626878815</v>
+        <v>0.4305563615286256</v>
       </c>
       <c r="G27">
-        <v>13.09282817648253</v>
+        <v>2.909517372551673</v>
       </c>
       <c r="H27">
-        <v>0.2557287330823411</v>
+        <v>0.05682860735163134</v>
       </c>
       <c r="I27">
-        <v>7.207433714452388</v>
+        <v>1.601651936544975</v>
       </c>
       <c r="J27">
-        <v>2.579533365348438</v>
+        <v>0.5732296367440974</v>
       </c>
       <c r="K27">
-        <v>12.99147972999914</v>
+        <v>2.886995495555365</v>
       </c>
       <c r="L27">
-        <v>4.17531285035852</v>
+        <v>0.9278473000796709</v>
       </c>
       <c r="M27">
-        <v>25.4310045649127</v>
+        <v>5.651334347758377</v>
       </c>
       <c r="N27">
-        <v>0.2193617541240237</v>
+        <v>0.0487470564720053</v>
       </c>
       <c r="O27">
-        <v>3.466816612300316</v>
+        <v>0.7704036916222926</v>
       </c>
       <c r="P27">
-        <v>107.9833237475352</v>
+        <v>23.99629416611893</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1738,49 +1738,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.248699915465267</v>
+        <v>0.2774888701033927</v>
       </c>
       <c r="C28">
-        <v>31.82650167094792</v>
+        <v>7.072555926877318</v>
       </c>
       <c r="D28">
-        <v>0.01326469447373499</v>
+        <v>0.002947709883052221</v>
       </c>
       <c r="E28">
-        <v>4.797857639119453</v>
+        <v>1.066190586470989</v>
       </c>
       <c r="F28">
-        <v>2.103575366325571</v>
+        <v>0.4674611925167936</v>
       </c>
       <c r="G28">
-        <v>14.2150705916096</v>
+        <v>3.158904575913243</v>
       </c>
       <c r="H28">
-        <v>0.3230257681040097</v>
+        <v>0.07178350402311326</v>
       </c>
       <c r="I28">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="J28">
-        <v>2.496988297657287</v>
+        <v>0.554886288368286</v>
       </c>
       <c r="K28">
-        <v>12.57575237863917</v>
+        <v>2.794611639697593</v>
       </c>
       <c r="L28">
-        <v>5.133581373391624</v>
+        <v>1.140795860753694</v>
       </c>
       <c r="M28">
-        <v>31.26762856341726</v>
+        <v>6.948361902981611</v>
       </c>
       <c r="N28">
-        <v>0.09032542816871564</v>
+        <v>0.02007231737082569</v>
       </c>
       <c r="O28">
-        <v>1.427512722711895</v>
+        <v>0.3172250494915323</v>
       </c>
       <c r="P28">
-        <v>116.6239112072345</v>
+        <v>25.91642471271879</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1788,49 +1788,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.16761550537012</v>
+        <v>0.2594701123044711</v>
       </c>
       <c r="C29">
-        <v>29.75984571828895</v>
+        <v>6.613299048508658</v>
       </c>
       <c r="D29">
-        <v>0.01136973812034428</v>
+        <v>0.002526608471187618</v>
       </c>
       <c r="E29">
-        <v>4.112449404959531</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="F29">
-        <v>1.882146380396563</v>
+        <v>0.4182547511992363</v>
       </c>
       <c r="G29">
-        <v>12.71874737144017</v>
+        <v>2.826388304764481</v>
       </c>
       <c r="H29">
-        <v>0.363403989117011</v>
+        <v>0.08075644202600243</v>
       </c>
       <c r="I29">
-        <v>10.2421426468534</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="J29">
-        <v>1.712810154591362</v>
+        <v>0.3806244787980805</v>
       </c>
       <c r="K29">
-        <v>8.626342540719429</v>
+        <v>1.916965009048762</v>
       </c>
       <c r="L29">
-        <v>4.17531285035852</v>
+        <v>0.9278473000796709</v>
       </c>
       <c r="M29">
-        <v>25.4310045649127</v>
+        <v>5.651334347758377</v>
       </c>
       <c r="N29">
-        <v>0.06451816297765402</v>
+        <v>0.01433736955058979</v>
       </c>
       <c r="O29">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="P29">
-        <v>101.2873609729</v>
+        <v>22.50830243842222</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1838,49 +1838,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.328162637358511</v>
+        <v>0.2951472527463359</v>
       </c>
       <c r="C30">
-        <v>33.85182450455372</v>
+        <v>7.522627667678602</v>
       </c>
       <c r="D30">
-        <v>0.005053216942375235</v>
+        <v>0.001122937098305608</v>
       </c>
       <c r="E30">
-        <v>1.827755291093125</v>
+        <v>0.4061678424651389</v>
       </c>
       <c r="F30">
-        <v>2.158932612807822</v>
+        <v>0.4797628028461828</v>
       </c>
       <c r="G30">
-        <v>14.58915139665196</v>
+        <v>3.242033643700435</v>
       </c>
       <c r="H30">
-        <v>0.2557287330823411</v>
+        <v>0.05682860735163134</v>
       </c>
       <c r="I30">
-        <v>7.207433714452388</v>
+        <v>1.601651936544975</v>
       </c>
       <c r="J30">
-        <v>1.650901353823</v>
+        <v>0.3668669675162222</v>
       </c>
       <c r="K30">
-        <v>8.314547027199449</v>
+        <v>1.847677117155434</v>
       </c>
       <c r="L30">
-        <v>3.969969595422855</v>
+        <v>0.8822154656495235</v>
       </c>
       <c r="M30">
-        <v>24.18029942237601</v>
+        <v>5.373399871639114</v>
       </c>
       <c r="N30">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O30">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P30">
-        <v>99.77342754887231</v>
+        <v>22.17187278863829</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1888,43 +1888,43 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.29410718511855</v>
+        <v>0.2875793744707886</v>
       </c>
       <c r="C31">
-        <v>32.98382900443696</v>
+        <v>7.329739778763768</v>
       </c>
       <c r="D31">
-        <v>0.0006316521177969044</v>
+        <v>0.000140367137288201</v>
       </c>
       <c r="E31">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="F31">
-        <v>0.9410731901982817</v>
+        <v>0.2091273755996182</v>
       </c>
       <c r="G31">
-        <v>6.359373685720086</v>
+        <v>1.41319415238224</v>
       </c>
       <c r="H31">
-        <v>0.4845386521560146</v>
+        <v>0.1076752560346699</v>
       </c>
       <c r="I31">
-        <v>13.65619019580452</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="J31">
-        <v>0.866723210757075</v>
+        <v>0.1926051579460167</v>
       </c>
       <c r="K31">
-        <v>4.365137189279711</v>
+        <v>0.9700304865066025</v>
       </c>
       <c r="L31">
-        <v>3.080148824034973</v>
+        <v>0.6844775164522164</v>
       </c>
       <c r="M31">
-        <v>18.76057713805035</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="P31">
-        <v>83.02079933906096</v>
+        <v>18.44906651979132</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1932,43 +1932,43 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.151398623351091</v>
+        <v>0.2558663607446869</v>
       </c>
       <c r="C32">
-        <v>29.34651452775718</v>
+        <v>6.521447672834929</v>
       </c>
       <c r="D32">
-        <v>0.00284243453008607</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E32">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F32">
-        <v>1.217859422609542</v>
+        <v>0.2706354272465646</v>
       </c>
       <c r="G32">
-        <v>8.229777710931875</v>
+        <v>1.828839491318194</v>
       </c>
       <c r="H32">
-        <v>0.565295094182017</v>
+        <v>0.1256211320404482</v>
       </c>
       <c r="I32">
-        <v>15.93222189510528</v>
+        <v>3.54049375446784</v>
       </c>
       <c r="J32">
-        <v>0.90799574460265</v>
+        <v>0.2017768321339222</v>
       </c>
       <c r="K32">
-        <v>4.573000864959698</v>
+        <v>1.016222414435489</v>
       </c>
       <c r="L32">
-        <v>2.395671307582756</v>
+        <v>0.532371401685057</v>
       </c>
       <c r="M32">
-        <v>14.59155999626138</v>
+        <v>3.242568888058086</v>
       </c>
       <c r="P32">
-        <v>79.94224997311343</v>
+        <v>17.76494443846965</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1976,43 +1976,43 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.9178755222770668</v>
+        <v>0.2039723382837926</v>
       </c>
       <c r="C33">
-        <v>23.3945453840994</v>
+        <v>5.198787863133197</v>
       </c>
       <c r="D33">
-        <v>0.005053216942375235</v>
+        <v>0.001122937098305608</v>
       </c>
       <c r="E33">
-        <v>1.827755291093125</v>
+        <v>0.4061678424651389</v>
       </c>
       <c r="F33">
-        <v>1.273216669091793</v>
+        <v>0.282937037575954</v>
       </c>
       <c r="G33">
-        <v>8.603858515974228</v>
+        <v>1.911968559105385</v>
       </c>
       <c r="H33">
-        <v>0.4710792451516809</v>
+        <v>0.1046842767003735</v>
       </c>
       <c r="I33">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="J33">
-        <v>0.5159066730696873</v>
+        <v>0.1146459273488194</v>
       </c>
       <c r="K33">
-        <v>2.598295945999828</v>
+        <v>0.577399099111073</v>
       </c>
       <c r="L33">
-        <v>1.026716274678324</v>
+        <v>0.2281591721507387</v>
       </c>
       <c r="M33">
-        <v>6.253525712683452</v>
+        <v>1.389672380596322</v>
       </c>
       <c r="P33">
-        <v>60.16468003031536</v>
+        <v>13.36992889562563</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2020,43 +2020,43 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.7232729380487133</v>
+        <v>0.1607273195663807</v>
       </c>
       <c r="C34">
-        <v>18.4345710977179</v>
+        <v>4.09657135504842</v>
       </c>
       <c r="D34">
-        <v>0.00284243453008607</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E34">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F34">
-        <v>0.7750014507515259</v>
+        <v>0.1722225446114503</v>
       </c>
       <c r="G34">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="H34">
-        <v>0.3903228031256784</v>
+        <v>0.08673840069459521</v>
       </c>
       <c r="I34">
-        <v>11.00081987995365</v>
+        <v>2.444626639989699</v>
       </c>
       <c r="J34">
-        <v>0.2682714699962375</v>
+        <v>0.05961588222138611</v>
       </c>
       <c r="K34">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="L34">
-        <v>0.9582685230331025</v>
+        <v>0.2129485606740228</v>
       </c>
       <c r="M34">
-        <v>5.836623998504554</v>
+        <v>1.297027555223235</v>
       </c>
       <c r="P34">
-        <v>46.00635210941425</v>
+        <v>10.22363380209205</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2064,43 +2064,43 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.475154643157563</v>
+        <v>0.1055899207016806</v>
       </c>
       <c r="C35">
-        <v>12.11060388258149</v>
+        <v>2.691245307240332</v>
       </c>
       <c r="D35">
-        <v>0.002210782412289166</v>
+        <v>0.0004912849805087036</v>
       </c>
       <c r="E35">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="F35">
-        <v>0.387500725375763</v>
+        <v>0.08611127230572516</v>
       </c>
       <c r="G35">
-        <v>2.618565635296505</v>
+        <v>0.5819034745103343</v>
       </c>
       <c r="H35">
-        <v>0.2691881400866747</v>
+        <v>0.05981958668592775</v>
       </c>
       <c r="I35">
-        <v>7.586772331002512</v>
+        <v>1.685949406889448</v>
       </c>
       <c r="J35">
-        <v>0.4333616053785375</v>
+        <v>0.09630257897300834</v>
       </c>
       <c r="K35">
-        <v>2.182568594639855</v>
+        <v>0.4850152432533013</v>
       </c>
       <c r="L35">
-        <v>1.437402784549655</v>
+        <v>0.3194228410110341</v>
       </c>
       <c r="M35">
-        <v>8.754935997756828</v>
+        <v>1.945541332834851</v>
       </c>
       <c r="P35">
-        <v>37.05790806209092</v>
+        <v>8.23509068046465</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2108,49 +2108,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.3405545223996183</v>
+        <v>0.07567878275547074</v>
       </c>
       <c r="C36">
-        <v>8.679955001167619</v>
+        <v>1.92887888914836</v>
       </c>
       <c r="D36">
-        <v>0.001263304235593809</v>
+        <v>0.000280734274576402</v>
       </c>
       <c r="E36">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="F36">
-        <v>0.3321434788935111</v>
+        <v>0.0738096619763358</v>
       </c>
       <c r="G36">
-        <v>2.244484830254147</v>
+        <v>0.4987744067231438</v>
       </c>
       <c r="H36">
-        <v>0.1076752560346699</v>
+        <v>0.0239278346743711</v>
       </c>
       <c r="I36">
-        <v>3.034708932401005</v>
+        <v>0.6743797627557792</v>
       </c>
       <c r="J36">
-        <v>0.3095440038418125</v>
+        <v>0.06878755640929164</v>
       </c>
       <c r="K36">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666437</v>
       </c>
       <c r="L36">
-        <v>0.752925268097438</v>
+        <v>0.1673167262438751</v>
       </c>
       <c r="M36">
-        <v>4.585918855967866</v>
+        <v>1.01909307910397</v>
       </c>
       <c r="N36">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O36">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P36">
-        <v>22.62192386522083</v>
+        <v>5.027094192271296</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2158,37 +2158,37 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.2059544016416739</v>
+        <v>0.04576764480926088</v>
       </c>
       <c r="C37">
-        <v>5.249306119753752</v>
+        <v>1.166512471056388</v>
       </c>
       <c r="D37">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E37">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="H37">
-        <v>0.01345940700433374</v>
+        <v>0.002990979334296387</v>
       </c>
       <c r="I37">
-        <v>0.3793386165501257</v>
+        <v>0.08429747034447239</v>
       </c>
       <c r="J37">
-        <v>0.3095440038418125</v>
+        <v>0.06878755640929164</v>
       </c>
       <c r="K37">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666437</v>
       </c>
       <c r="L37">
-        <v>0.8213730197426595</v>
+        <v>0.182527337720591</v>
       </c>
       <c r="M37">
-        <v>5.002820570146761</v>
+        <v>1.111737904477058</v>
       </c>
       <c r="P37">
-        <v>13.88442530153767</v>
+        <v>3.085427844786148</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2196,43 +2196,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.145951938171265</v>
+        <v>0.03243376403805889</v>
       </c>
       <c r="C38">
-        <v>3.719980714786119</v>
+        <v>0.8266623810635823</v>
       </c>
       <c r="D38">
-        <v>0.001894956353390714</v>
+        <v>0.0004211014118646031</v>
       </c>
       <c r="E38">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="F38">
-        <v>0.1660717394467556</v>
+        <v>0.0369048309881679</v>
       </c>
       <c r="G38">
-        <v>1.122242415127074</v>
+        <v>0.2493872033615719</v>
       </c>
       <c r="H38">
-        <v>0.01345940700433374</v>
+        <v>0.002990979334296387</v>
       </c>
       <c r="I38">
-        <v>0.3793386165501257</v>
+        <v>0.08429747034447239</v>
       </c>
       <c r="J38">
-        <v>0.3301802707645999</v>
+        <v>0.07337339350324444</v>
       </c>
       <c r="K38">
-        <v>1.66290940543989</v>
+        <v>0.3695354234310867</v>
       </c>
       <c r="L38">
-        <v>0.2737910065808865</v>
+        <v>0.06084244590686365</v>
       </c>
       <c r="M38">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="P38">
-        <v>10.16883556109995</v>
+        <v>2.259741235799988</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2240,37 +2240,37 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.1005446685179825</v>
+        <v>0.0223432596706628</v>
       </c>
       <c r="C39">
-        <v>2.562653381297106</v>
+        <v>0.5694785291771345</v>
       </c>
       <c r="D39">
-        <v>0.0006316521177969044</v>
+        <v>0.000140367137288201</v>
       </c>
       <c r="E39">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="F39">
-        <v>0.2767862324112593</v>
+        <v>0.0615080516469465</v>
       </c>
       <c r="G39">
-        <v>1.870404025211789</v>
+        <v>0.4156453389359533</v>
       </c>
       <c r="J39">
-        <v>0.04127253384557499</v>
+        <v>0.009171674187905555</v>
       </c>
       <c r="K39">
-        <v>0.2078636756799862</v>
+        <v>0.04619192792888584</v>
       </c>
       <c r="L39">
-        <v>0.6844775164522163</v>
+        <v>0.1521061147671592</v>
       </c>
       <c r="M39">
-        <v>4.169017141788967</v>
+        <v>0.926448253730882</v>
       </c>
       <c r="P39">
-        <v>10.14212023870932</v>
+        <v>2.25380449749096</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,43 +2278,43 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.08108441009514721</v>
+        <v>0.01801875779892162</v>
       </c>
       <c r="C40">
-        <v>2.066655952658956</v>
+        <v>0.4592568783686573</v>
       </c>
       <c r="D40">
-        <v>0.001263304235593809</v>
+        <v>0.000280734274576402</v>
       </c>
       <c r="E40">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="F40">
-        <v>0.05535724648225186</v>
+        <v>0.01230161032938931</v>
       </c>
       <c r="G40">
-        <v>0.3740808050423579</v>
+        <v>0.08312906778719063</v>
       </c>
       <c r="H40">
-        <v>0.06729703502166867</v>
+        <v>0.01495489667148194</v>
       </c>
       <c r="I40">
-        <v>1.896693082750628</v>
+        <v>0.4214873517223619</v>
       </c>
       <c r="J40">
-        <v>0.1857264023050875</v>
+        <v>0.041272533845575</v>
       </c>
       <c r="K40">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="L40">
-        <v>0.3422387582261082</v>
+        <v>0.07605305738357961</v>
       </c>
       <c r="M40">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="P40">
-        <v>8.547230931045503</v>
+        <v>1.899384651343446</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2322,43 +2322,43 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.2140628426511889</v>
+        <v>0.04756952058915305</v>
       </c>
       <c r="C41">
-        <v>5.455971715019643</v>
+        <v>1.212438158893254</v>
       </c>
       <c r="D41">
-        <v>0.001263304235593809</v>
+        <v>0.000280734274576402</v>
       </c>
       <c r="E41">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="F41">
-        <v>0.2214289859290074</v>
+        <v>0.04920644131755723</v>
       </c>
       <c r="G41">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="H41">
-        <v>0.04037822101300122</v>
+        <v>0.008972938002889157</v>
       </c>
       <c r="I41">
-        <v>1.138015849650378</v>
+        <v>0.2528924110334171</v>
       </c>
       <c r="J41">
-        <v>0.2682714699962375</v>
+        <v>0.05961588222138611</v>
       </c>
       <c r="K41">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="L41">
-        <v>0.2737910065808865</v>
+        <v>0.06084244590686365</v>
       </c>
       <c r="M41">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="P41">
-        <v>12.58516618665415</v>
+        <v>2.796703597034255</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2366,43 +2366,43 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.5708342470698367</v>
+        <v>0.1268520549044081</v>
       </c>
       <c r="C42">
-        <v>14.54925790671906</v>
+        <v>3.233168423715344</v>
       </c>
       <c r="D42">
-        <v>0.0003158260588984522</v>
+        <v>7.01835686441005E-05</v>
       </c>
       <c r="E42">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="F42">
-        <v>0.9964304366805334</v>
+        <v>0.2214289859290075</v>
       </c>
       <c r="G42">
-        <v>6.733454490762441</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H42">
-        <v>0.1480534770476711</v>
+        <v>0.03290077267726025</v>
       </c>
       <c r="I42">
-        <v>4.172724782051384</v>
+        <v>0.9272721737891965</v>
       </c>
       <c r="J42">
-        <v>0.866723210757075</v>
+        <v>0.1926051579460167</v>
       </c>
       <c r="K42">
-        <v>4.365137189279711</v>
+        <v>0.9700304865066025</v>
       </c>
       <c r="L42">
-        <v>1.026716274678324</v>
+        <v>0.2281591721507387</v>
       </c>
       <c r="M42">
-        <v>6.253525712683452</v>
+        <v>1.389672380596322</v>
       </c>
       <c r="P42">
-        <v>39.79740825948171</v>
+        <v>8.843868502107043</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2410,43 +2410,43 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.9373357806999015</v>
+        <v>0.2082968401555337</v>
       </c>
       <c r="C43">
-        <v>23.89054281273754</v>
+        <v>5.309009513941675</v>
       </c>
       <c r="D43">
-        <v>0.001894956353390714</v>
+        <v>0.0004211014118646031</v>
       </c>
       <c r="E43">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="F43">
-        <v>1.162502176127289</v>
+        <v>0.2583338169171753</v>
       </c>
       <c r="G43">
-        <v>7.855696905889514</v>
+        <v>1.745710423531003</v>
       </c>
       <c r="H43">
-        <v>0.5114574661646821</v>
+        <v>0.1136572147032627</v>
       </c>
       <c r="I43">
-        <v>14.41486742890478</v>
+        <v>3.20330387308995</v>
       </c>
       <c r="J43">
-        <v>1.795355222282512</v>
+        <v>0.3989678271738916</v>
       </c>
       <c r="K43">
-        <v>9.042069892079404</v>
+        <v>2.009348864906534</v>
       </c>
       <c r="L43">
-        <v>1.916537046066205</v>
+        <v>0.4258971213480456</v>
       </c>
       <c r="M43">
-        <v>11.67324799700911</v>
+        <v>2.594055110446469</v>
       </c>
       <c r="P43">
-        <v>73.88691591847424</v>
+        <v>16.41931464854983</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,49 +2454,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.333027701964221</v>
+        <v>0.2962283782142712</v>
       </c>
       <c r="C44">
-        <v>33.97582386171324</v>
+        <v>7.550183080380722</v>
       </c>
       <c r="D44">
-        <v>0.003158260588984523</v>
+        <v>0.000701835686441005</v>
       </c>
       <c r="E44">
-        <v>1.142347056933203</v>
+        <v>0.2538549015407118</v>
       </c>
       <c r="F44">
-        <v>0.9410731901982817</v>
+        <v>0.2091273755996182</v>
       </c>
       <c r="G44">
-        <v>6.359373685720086</v>
+        <v>1.41319415238224</v>
       </c>
       <c r="H44">
-        <v>0.5114574661646821</v>
+        <v>0.1136572147032627</v>
       </c>
       <c r="I44">
-        <v>14.41486742890478</v>
+        <v>3.20330387308995</v>
       </c>
       <c r="J44">
-        <v>0.9492682784482249</v>
+        <v>0.2109485063218278</v>
       </c>
       <c r="K44">
-        <v>4.780864540639683</v>
+        <v>1.062414342364374</v>
       </c>
       <c r="L44">
-        <v>1.437402784549655</v>
+        <v>0.3194228410110341</v>
       </c>
       <c r="M44">
-        <v>8.754935997756828</v>
+        <v>1.945541332834851</v>
       </c>
       <c r="N44">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O44">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P44">
-        <v>75.03726829669061</v>
+        <v>16.67494851037569</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2504,49 +2504,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.27789030309952</v>
+        <v>0.2839756229110046</v>
       </c>
       <c r="C45">
-        <v>32.57049781390516</v>
+        <v>7.237888403090034</v>
       </c>
       <c r="D45">
-        <v>0.01010643388475047</v>
+        <v>0.002245874196611216</v>
       </c>
       <c r="E45">
-        <v>3.65551058218625</v>
+        <v>0.8123356849302777</v>
       </c>
       <c r="F45">
-        <v>1.383931162056297</v>
+        <v>0.3075402582347326</v>
       </c>
       <c r="G45">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="H45">
-        <v>0.2961069540953423</v>
+        <v>0.0658015453545205</v>
       </c>
       <c r="I45">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="J45">
-        <v>1.588992553054637</v>
+        <v>0.3531094562343638</v>
       </c>
       <c r="K45">
-        <v>8.00275151367947</v>
+        <v>1.778389225262105</v>
       </c>
       <c r="L45">
-        <v>2.601014562518421</v>
+        <v>0.5780032361152045</v>
       </c>
       <c r="M45">
-        <v>15.84226513879808</v>
+        <v>3.520503364177351</v>
       </c>
       <c r="N45">
-        <v>0.06451816297765402</v>
+        <v>0.01433736955058979</v>
       </c>
       <c r="O45">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="P45">
-        <v>86.01070681521152</v>
+        <v>19.11349040338033</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2554,49 +2554,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.206536022215791</v>
+        <v>0.2681191160479536</v>
       </c>
       <c r="C46">
-        <v>30.75184057556528</v>
+        <v>6.833742350125617</v>
       </c>
       <c r="D46">
-        <v>0.006316521177969045</v>
+        <v>0.00140367137288201</v>
       </c>
       <c r="E46">
-        <v>2.284694113866406</v>
+        <v>0.5077098030814237</v>
       </c>
       <c r="F46">
-        <v>1.494645655020801</v>
+        <v>0.3321434788935113</v>
       </c>
       <c r="G46">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="H46">
-        <v>0.4307010241386797</v>
+        <v>0.09571133869748438</v>
       </c>
       <c r="I46">
-        <v>12.13883572960402</v>
+        <v>2.697519051023117</v>
       </c>
       <c r="J46">
-        <v>2.104899226124325</v>
+        <v>0.4677553835831834</v>
       </c>
       <c r="K46">
-        <v>10.6010474596793</v>
+        <v>2.355788324373178</v>
       </c>
       <c r="L46">
-        <v>3.490835333906303</v>
+        <v>0.7757411853125117</v>
       </c>
       <c r="M46">
-        <v>21.26198742312373</v>
+        <v>4.724886094027497</v>
       </c>
       <c r="N46">
-        <v>0.05161453038212322</v>
+        <v>0.01146989564047183</v>
       </c>
       <c r="O46">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="P46">
-        <v>96.73985690678377</v>
+        <v>21.49774597928528</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2604,49 +2604,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.9340924042960963</v>
+        <v>0.2075760898435769</v>
       </c>
       <c r="C47">
-        <v>23.80787657463119</v>
+        <v>5.290639238806929</v>
       </c>
       <c r="D47">
-        <v>0.01010643388475047</v>
+        <v>0.002245874196611216</v>
       </c>
       <c r="E47">
-        <v>3.65551058218625</v>
+        <v>0.8123356849302777</v>
       </c>
       <c r="F47">
-        <v>1.107144929645037</v>
+        <v>0.246032206587786</v>
       </c>
       <c r="G47">
-        <v>7.481616100847157</v>
+        <v>1.662581355743813</v>
       </c>
       <c r="H47">
-        <v>0.363403989117011</v>
+        <v>0.08075644202600243</v>
       </c>
       <c r="I47">
-        <v>10.2421426468534</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="J47">
-        <v>2.600169632271224</v>
+        <v>0.5778154738380499</v>
       </c>
       <c r="K47">
-        <v>13.09541156783914</v>
+        <v>2.910091459519808</v>
       </c>
       <c r="L47">
-        <v>3.764626340487189</v>
+        <v>0.8365836312193751</v>
       </c>
       <c r="M47">
-        <v>22.92959427983932</v>
+        <v>5.095465395519851</v>
       </c>
       <c r="N47">
-        <v>0.1935544889329621</v>
+        <v>0.04301210865176937</v>
       </c>
       <c r="O47">
-        <v>3.058955834382633</v>
+        <v>0.6797679631961407</v>
       </c>
       <c r="P47">
-        <v>93.24420580521335</v>
+        <v>20.72093462338075</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2654,49 +2654,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.031393696410273</v>
+        <v>0.2291985992022829</v>
       </c>
       <c r="C48">
-        <v>26.28786371782193</v>
+        <v>5.841747492849315</v>
       </c>
       <c r="D48">
-        <v>0.01200139023814119</v>
+        <v>0.002666975608475819</v>
       </c>
       <c r="E48">
-        <v>4.340918816346171</v>
+        <v>0.9646486258547048</v>
       </c>
       <c r="F48">
-        <v>1.882146380396563</v>
+        <v>0.4182547511992363</v>
       </c>
       <c r="G48">
-        <v>12.71874737144017</v>
+        <v>2.826388304764481</v>
       </c>
       <c r="H48">
-        <v>0.3230257681040097</v>
+        <v>0.07178350402311326</v>
       </c>
       <c r="I48">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="J48">
-        <v>2.187444293815475</v>
+        <v>0.4860987319589944</v>
       </c>
       <c r="K48">
-        <v>11.01677481103927</v>
+        <v>2.448172180230949</v>
       </c>
       <c r="L48">
-        <v>2.874805569099309</v>
+        <v>0.6388456820220683</v>
       </c>
       <c r="M48">
-        <v>17.50987199551366</v>
+        <v>3.891082665669702</v>
       </c>
       <c r="N48">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O48">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P48">
-        <v>89.72278865053674</v>
+        <v>19.93839747789705</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2704,49 +2704,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.088152783476876</v>
+        <v>0.2418117296615279</v>
       </c>
       <c r="C49">
-        <v>27.73452288468319</v>
+        <v>6.163227307707379</v>
       </c>
       <c r="D49">
-        <v>0.01231721629703964</v>
+        <v>0.00273715917711992</v>
       </c>
       <c r="E49">
-        <v>4.455153522039491</v>
+        <v>0.990034116008776</v>
       </c>
       <c r="F49">
-        <v>1.605360147985304</v>
+        <v>0.3567466995522897</v>
       </c>
       <c r="G49">
-        <v>10.84834334622838</v>
+        <v>2.410742965828528</v>
       </c>
       <c r="H49">
-        <v>0.3095663610996759</v>
+        <v>0.06879252468881693</v>
       </c>
       <c r="I49">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="J49">
-        <v>2.187444293815475</v>
+        <v>0.4860987319589944</v>
       </c>
       <c r="K49">
-        <v>11.01677481103927</v>
+        <v>2.448172180230949</v>
       </c>
       <c r="L49">
-        <v>6.570984157941276</v>
+        <v>1.460218701764728</v>
       </c>
       <c r="M49">
-        <v>40.02256456117409</v>
+        <v>8.893903235816465</v>
       </c>
       <c r="N49">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O49">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P49">
-        <v>114.7928062879873</v>
+        <v>25.50951250844163</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM10.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.2720832427637162</v>
+        <v>1.224374592436724</v>
       </c>
       <c r="C2">
-        <v>6.934778863366719</v>
+        <v>31.20650488515025</v>
       </c>
       <c r="D2">
-        <v>0.001614222078814312</v>
+        <v>0.007263999354664404</v>
       </c>
       <c r="E2">
-        <v>0.5838662735436371</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="F2">
-        <v>0.5166676338343505</v>
+        <v>2.325004352254578</v>
       </c>
       <c r="G2">
-        <v>3.491420847062006</v>
+        <v>15.71139381177903</v>
       </c>
       <c r="H2">
-        <v>0.07477448335740967</v>
+        <v>0.3364851751083435</v>
       </c>
       <c r="I2">
-        <v>2.10743675861181</v>
+        <v>9.483465413753141</v>
       </c>
       <c r="J2">
-        <v>0.6236738447775779</v>
+        <v>2.8065323014991</v>
       </c>
       <c r="K2">
-        <v>3.141051099164237</v>
+        <v>14.13472994623907</v>
       </c>
       <c r="L2">
-        <v>1.23205952961399</v>
+        <v>5.54426788326295</v>
       </c>
       <c r="M2">
-        <v>7.504230855220144</v>
+        <v>33.76903884849064</v>
       </c>
       <c r="N2">
-        <v>0.02293979128094366</v>
+        <v>0.1032290607642464</v>
       </c>
       <c r="O2">
-        <v>0.3625429137046082</v>
+        <v>1.631443111670737</v>
       </c>
       <c r="P2">
-        <v>26.86914035837997</v>
+        <v>120.9111316127098</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.2796511210392633</v>
+        <v>1.258430044676685</v>
       </c>
       <c r="C3">
-        <v>7.127666752281557</v>
+        <v>32.07450038526702</v>
       </c>
       <c r="D3">
-        <v>0.002035323490678915</v>
+        <v>0.009158955708055116</v>
       </c>
       <c r="E3">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="F3">
-        <v>0.3936515305404578</v>
+        <v>1.77143188743206</v>
       </c>
       <c r="G3">
-        <v>2.6601301691901</v>
+        <v>11.97058576135545</v>
       </c>
       <c r="H3">
-        <v>0.05682860735163134</v>
+        <v>0.2557287330823411</v>
       </c>
       <c r="I3">
-        <v>1.601651936544975</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="J3">
-        <v>0.6007446593078138</v>
+        <v>2.703350966885162</v>
       </c>
       <c r="K3">
-        <v>3.025571279342022</v>
+        <v>13.6150707570391</v>
       </c>
       <c r="L3">
-        <v>1.034321580416683</v>
+        <v>4.654447111875071</v>
       </c>
       <c r="M3">
-        <v>6.299848125369997</v>
+        <v>28.34931656416498</v>
       </c>
       <c r="N3">
-        <v>0.01433736955058979</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O3">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P3">
-        <v>24.05920698995921</v>
+        <v>108.2664314548165</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>0.2857774986908966</v>
+        <v>1.285998744109035</v>
       </c>
       <c r="C4">
-        <v>7.2838140909269</v>
+        <v>32.77716340917106</v>
       </c>
       <c r="D4">
-        <v>0.002245874196611216</v>
+        <v>0.01010643388475047</v>
       </c>
       <c r="E4">
-        <v>0.8123356849302777</v>
+        <v>3.65551058218625</v>
       </c>
       <c r="F4">
-        <v>0.282937037575954</v>
+        <v>1.273216669091793</v>
       </c>
       <c r="G4">
-        <v>1.911968559105385</v>
+        <v>8.603858515974228</v>
       </c>
       <c r="H4">
-        <v>0.07776546269170606</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I4">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J4">
-        <v>0.5686437996501448</v>
+        <v>2.55889709842565</v>
       </c>
       <c r="K4">
-        <v>2.863899531590922</v>
+        <v>12.88754789215915</v>
       </c>
       <c r="L4">
-        <v>0.5171607902083414</v>
+        <v>2.327223555937536</v>
       </c>
       <c r="M4">
-        <v>3.149924062684998</v>
+        <v>14.17465828208249</v>
       </c>
       <c r="N4">
-        <v>0.01433736955058979</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O4">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P4">
-        <v>20.18913331182439</v>
+        <v>90.85109990320974</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>0.3102830092974302</v>
+        <v>1.396273541838435</v>
       </c>
       <c r="C5">
-        <v>7.908403445508276</v>
+        <v>35.58781550478724</v>
       </c>
       <c r="D5">
-        <v>0.002035323490678915</v>
+        <v>0.009158955708055116</v>
       </c>
       <c r="E5">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="F5">
-        <v>0.442857971858015</v>
+        <v>1.992860873361067</v>
       </c>
       <c r="G5">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="H5">
-        <v>0.09272035936318798</v>
+        <v>0.4172416171343458</v>
       </c>
       <c r="I5">
-        <v>2.613221580678643</v>
+        <v>11.7594971130539</v>
       </c>
       <c r="J5">
-        <v>0.4218970126436555</v>
+        <v>1.89853655689645</v>
       </c>
       <c r="K5">
-        <v>2.124828684728749</v>
+        <v>9.561729081279367</v>
       </c>
       <c r="L5">
-        <v>0.3346334524877502</v>
+        <v>1.505850536194876</v>
       </c>
       <c r="M5">
-        <v>2.03818615820794</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="N5">
-        <v>0.02293979128094366</v>
+        <v>0.1032290607642464</v>
       </c>
       <c r="O5">
-        <v>0.3625429137046082</v>
+        <v>1.631443111670737</v>
       </c>
       <c r="P5">
-        <v>20.4033753580568</v>
+        <v>91.81518911125563</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>0.3722675361257204</v>
+        <v>1.67520391256574</v>
       </c>
       <c r="C6">
-        <v>9.488247107096454</v>
+        <v>42.69711198193404</v>
       </c>
       <c r="D6">
-        <v>0.002316057765255316</v>
+        <v>0.01042225994364892</v>
       </c>
       <c r="E6">
-        <v>0.837721175084349</v>
+        <v>3.76974528787957</v>
       </c>
       <c r="F6">
-        <v>0.4059531408698472</v>
+        <v>1.826789133914311</v>
       </c>
       <c r="G6">
-        <v>2.743259236977292</v>
+        <v>12.34466656639781</v>
       </c>
       <c r="H6">
-        <v>0.0658015453545205</v>
+        <v>0.2961069540953423</v>
       </c>
       <c r="I6">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="J6">
-        <v>0.3347661078585527</v>
+        <v>1.506447485363487</v>
       </c>
       <c r="K6">
-        <v>1.686005369404334</v>
+        <v>7.587024162319497</v>
       </c>
       <c r="L6">
-        <v>0.1977379491973069</v>
+        <v>0.8898207713878811</v>
       </c>
       <c r="M6">
-        <v>1.204382729850146</v>
+        <v>5.419722284325657</v>
       </c>
       <c r="N6">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O6">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P6">
-        <v>19.28937297940855</v>
+        <v>86.8021784073385</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>0.3228961397566754</v>
+        <v>1.453032628905038</v>
       </c>
       <c r="C7">
-        <v>8.229883260366336</v>
+        <v>37.0344746716485</v>
       </c>
       <c r="D7">
-        <v>0.0004912849805087036</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E7">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F7">
-        <v>0.3936515305404578</v>
+        <v>1.77143188743206</v>
       </c>
       <c r="G7">
-        <v>2.6601301691901</v>
+        <v>11.97058576135545</v>
       </c>
       <c r="H7">
-        <v>0.1046842767003735</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I7">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J7">
-        <v>0.1926051579460167</v>
+        <v>0.866723210757075</v>
       </c>
       <c r="K7">
-        <v>0.9700304865066025</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="L7">
-        <v>0.1521061147671592</v>
+        <v>0.6844775164522163</v>
       </c>
       <c r="M7">
-        <v>0.926448253730882</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="N7">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O7">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P7">
-        <v>17.17740724386653</v>
+        <v>77.29833259739939</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.2576682365245789</v>
+        <v>1.159507064360606</v>
       </c>
       <c r="C8">
-        <v>6.567373360671793</v>
+        <v>29.55318012302306</v>
       </c>
       <c r="D8">
-        <v>0.001824772784746614</v>
+        <v>0.00821147753135976</v>
       </c>
       <c r="E8">
-        <v>0.6600227440058506</v>
+        <v>2.970102348026328</v>
       </c>
       <c r="F8">
-        <v>0.2091273755996182</v>
+        <v>0.9410731901982817</v>
       </c>
       <c r="G8">
-        <v>1.41319415238224</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="H8">
-        <v>0.08673840069459521</v>
+        <v>0.3903228031256784</v>
       </c>
       <c r="I8">
-        <v>2.444626639989699</v>
+        <v>11.00081987995365</v>
       </c>
       <c r="J8">
-        <v>0.2201201805097333</v>
+        <v>0.9905408122937999</v>
       </c>
       <c r="K8">
-        <v>1.10860627029326</v>
+        <v>4.98872821631967</v>
       </c>
       <c r="L8">
-        <v>0.182527337720591</v>
+        <v>0.8213730197426595</v>
       </c>
       <c r="M8">
-        <v>1.111737904477058</v>
+        <v>5.002820570146761</v>
       </c>
       <c r="N8">
-        <v>0.01146989564047183</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O8">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P8">
-        <v>14.45630872814654</v>
+        <v>65.05338927665943</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.2263155979544554</v>
+        <v>1.01842019079505</v>
       </c>
       <c r="C9">
-        <v>5.768266392310331</v>
+        <v>25.95719876539649</v>
       </c>
       <c r="D9">
-        <v>0.00280734274576402</v>
+        <v>0.01263304235593809</v>
       </c>
       <c r="E9">
-        <v>1.015419606162847</v>
+        <v>4.569388227732811</v>
       </c>
       <c r="F9">
-        <v>0.246032206587786</v>
+        <v>1.107144929645037</v>
       </c>
       <c r="G9">
-        <v>1.662581355743813</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="H9">
-        <v>0.131603090709041</v>
+        <v>0.5922139081906845</v>
       </c>
       <c r="I9">
-        <v>3.709088695156786</v>
+        <v>16.69089912820554</v>
       </c>
       <c r="J9">
-        <v>0.1329892757246306</v>
+        <v>0.5984517407608375</v>
       </c>
       <c r="K9">
-        <v>0.6697829549688448</v>
+        <v>3.014023297359801</v>
       </c>
       <c r="L9">
-        <v>0.2585803951041707</v>
+        <v>1.163611777968768</v>
       </c>
       <c r="M9">
-        <v>1.574962031342499</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="N9">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O9">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P9">
-        <v>15.49479962075736</v>
+        <v>69.7265982934081</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.199287461256073</v>
+        <v>0.8967935756523284</v>
       </c>
       <c r="C10">
-        <v>5.079381074757349</v>
+        <v>22.85721483640805</v>
       </c>
       <c r="D10">
-        <v>0.001193120666949709</v>
+        <v>0.005369043001273689</v>
       </c>
       <c r="E10">
-        <v>0.4315533326192101</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="F10">
-        <v>0.1845241549408396</v>
+        <v>0.830358697233778</v>
       </c>
       <c r="G10">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="H10">
-        <v>0.08075644202600243</v>
+        <v>0.363403989117011</v>
       </c>
       <c r="I10">
-        <v>2.276031699300755</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="J10">
-        <v>0.1284034386306778</v>
+        <v>0.5778154738380499</v>
       </c>
       <c r="K10">
-        <v>0.6466869910044017</v>
+        <v>2.910091459519808</v>
       </c>
       <c r="L10">
-        <v>0.1368955032904432</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M10">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N10">
-        <v>0.01720484346070775</v>
+        <v>0.07742179557318483</v>
       </c>
       <c r="O10">
-        <v>0.2719071852784563</v>
+        <v>1.223582333753053</v>
       </c>
       <c r="P10">
-        <v>11.53456469239752</v>
+        <v>51.90554111578881</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.1124370486652708</v>
+        <v>0.5059667189937187</v>
       </c>
       <c r="C11">
-        <v>2.86576292102042</v>
+        <v>12.89593314459189</v>
       </c>
       <c r="D11">
-        <v>0.000561468549152804</v>
+        <v>0.002526608471187618</v>
       </c>
       <c r="E11">
-        <v>0.2030839212325694</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="F11">
-        <v>0.0615080516469465</v>
+        <v>0.2767862324112593</v>
       </c>
       <c r="G11">
-        <v>0.4156453389359533</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="H11">
-        <v>0.05383762801733496</v>
+        <v>0.2422693260780073</v>
       </c>
       <c r="I11">
-        <v>1.517354466200503</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="J11">
-        <v>0.1146459273488194</v>
+        <v>0.5159066730696873</v>
       </c>
       <c r="K11">
-        <v>0.577399099111073</v>
+        <v>2.598295945999828</v>
       </c>
       <c r="L11">
-        <v>0.07605305738357961</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M11">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="N11">
-        <v>0.01433736955058979</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O11">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P11">
-        <v>6.702439745593034</v>
+        <v>30.16097885516866</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.07712028337938447</v>
+        <v>0.3470412752072301</v>
       </c>
       <c r="C12">
-        <v>1.965619439417853</v>
+        <v>8.845287477380332</v>
       </c>
       <c r="D12">
-        <v>0.000561468549152804</v>
+        <v>0.002526608471187618</v>
       </c>
       <c r="E12">
-        <v>0.2030839212325694</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="F12">
-        <v>0.04920644131755723</v>
+        <v>0.2214289859290074</v>
       </c>
       <c r="G12">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H12">
-        <v>0.02093685534007471</v>
+        <v>0.09421584903033614</v>
       </c>
       <c r="I12">
-        <v>0.5900822924113066</v>
+        <v>2.65537031585088</v>
       </c>
       <c r="J12">
-        <v>0.05503004512743333</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K12">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L12">
-        <v>0.06084244590686365</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M12">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="N12">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O12">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P12">
-        <v>4.099101009143014</v>
+        <v>18.44595454114355</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.04756952058915305</v>
+        <v>0.2140628426511889</v>
       </c>
       <c r="C13">
-        <v>1.212438158893254</v>
+        <v>5.455971715019643</v>
       </c>
       <c r="D13">
-        <v>0.0004912849805087036</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E13">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F13">
-        <v>0.01230161032938931</v>
+        <v>0.05535724648225186</v>
       </c>
       <c r="G13">
-        <v>0.08312906778719063</v>
+        <v>0.3740808050423579</v>
       </c>
       <c r="J13">
-        <v>0.05044420803348055</v>
+        <v>0.2269989361506625</v>
       </c>
       <c r="K13">
-        <v>0.2540556036088721</v>
+        <v>1.143250216239925</v>
       </c>
       <c r="L13">
-        <v>0.04563183443014776</v>
+        <v>0.2053432549356649</v>
       </c>
       <c r="M13">
-        <v>0.2779344761192645</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="N13">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O13">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P13">
-        <v>2.209879533972953</v>
+        <v>9.944457902878288</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.03856014168969223</v>
+        <v>0.1735206376036151</v>
       </c>
       <c r="C14">
-        <v>0.9828097197089263</v>
+        <v>4.422643738690166</v>
       </c>
       <c r="D14">
-        <v>0.0006316521177969044</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E14">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F14">
-        <v>0.0615080516469465</v>
+        <v>0.2767862324112593</v>
       </c>
       <c r="G14">
-        <v>0.4156453389359533</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="J14">
-        <v>0.06420171931533888</v>
+        <v>0.2889077369190249</v>
       </c>
       <c r="K14">
-        <v>0.3233434955022009</v>
+        <v>1.455045729759904</v>
       </c>
       <c r="L14">
-        <v>0.04563183443014776</v>
+        <v>0.2053432549356649</v>
       </c>
       <c r="M14">
-        <v>0.2779344761192645</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="N14">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O14">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P14">
-        <v>2.535106517099296</v>
+        <v>11.40797932694683</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,37 +1118,37 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.02883001247827456</v>
+        <v>0.1297350561522355</v>
       </c>
       <c r="C15">
-        <v>0.7348110053898514</v>
+        <v>3.306649524254329</v>
       </c>
       <c r="D15">
-        <v>0.0003509178432205025</v>
+        <v>0.001579130294492261</v>
       </c>
       <c r="E15">
-        <v>0.1269274507703559</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="F15">
-        <v>0.02460322065877861</v>
+        <v>0.1107144929645037</v>
       </c>
       <c r="G15">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="J15">
-        <v>0.041272533845575</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K15">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L15">
-        <v>0.09126366886029552</v>
+        <v>0.4106865098713298</v>
       </c>
       <c r="M15">
-        <v>0.5558689522385291</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="P15">
-        <v>1.978049573339248</v>
+        <v>8.901223080026613</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,43 +1156,43 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.02486588576251183</v>
+        <v>0.1118964859313032</v>
       </c>
       <c r="C16">
-        <v>0.633774492148747</v>
+        <v>2.851985214669359</v>
       </c>
       <c r="D16">
-        <v>0.0003509178432205025</v>
+        <v>0.001579130294492261</v>
       </c>
       <c r="E16">
-        <v>0.1269274507703559</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="F16">
-        <v>0.02460322065877861</v>
+        <v>0.1107144929645037</v>
       </c>
       <c r="G16">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="H16">
-        <v>0.01495489667148194</v>
+        <v>0.06729703502166867</v>
       </c>
       <c r="I16">
-        <v>0.4214873517223619</v>
+        <v>1.896693082750628</v>
       </c>
       <c r="J16">
-        <v>0.03668669675162222</v>
+        <v>0.1650901353823</v>
       </c>
       <c r="K16">
-        <v>0.1847677117155433</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="L16">
-        <v>0.07605305738357961</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M16">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P16">
-        <v>2.173953943868025</v>
+        <v>9.782792747406109</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,43 +1200,43 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.04756952058915305</v>
+        <v>0.2140628426511889</v>
       </c>
       <c r="C17">
-        <v>1.212438158893254</v>
+        <v>5.455971715019643</v>
       </c>
       <c r="D17">
-        <v>0.0004211014118646031</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E17">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F17">
-        <v>0.09841288263511445</v>
+        <v>0.4428579718580149</v>
       </c>
       <c r="G17">
-        <v>0.6650325422975251</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H17">
-        <v>0.002990979334296387</v>
+        <v>0.01345940700433374</v>
       </c>
       <c r="I17">
-        <v>0.08429747034447239</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="J17">
-        <v>0.07337339350324444</v>
+        <v>0.3301802707645999</v>
       </c>
       <c r="K17">
-        <v>0.3695354234310867</v>
+        <v>1.66290940543989</v>
       </c>
       <c r="L17">
-        <v>0.07605305738357961</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M17">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P17">
-        <v>3.245661597613459</v>
+        <v>14.60547718926056</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,49 +1244,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.15856506863051</v>
+        <v>0.7135428088372956</v>
       </c>
       <c r="C18">
-        <v>4.041460529644182</v>
+        <v>18.18657238339883</v>
       </c>
       <c r="D18">
-        <v>0.0006316521177969044</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E18">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F18">
-        <v>0.282937037575954</v>
+        <v>1.273216669091793</v>
       </c>
       <c r="G18">
-        <v>1.911968559105385</v>
+        <v>8.603858515974228</v>
       </c>
       <c r="H18">
-        <v>0.0239278346743711</v>
+        <v>0.1076752560346699</v>
       </c>
       <c r="I18">
-        <v>0.6743797627557792</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="J18">
-        <v>0.2247060176036861</v>
+        <v>1.011177079216588</v>
       </c>
       <c r="K18">
-        <v>1.131702234257703</v>
+        <v>5.092660054159663</v>
       </c>
       <c r="L18">
-        <v>0.2890016180576023</v>
+        <v>1.30050728125921</v>
       </c>
       <c r="M18">
-        <v>1.760251682088676</v>
+        <v>7.921132569399039</v>
       </c>
       <c r="N18">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O18">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P18">
-        <v>10.77618674602148</v>
+        <v>48.49284035709667</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1294,49 +1294,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.2515418588729455</v>
+        <v>1.131938364928255</v>
       </c>
       <c r="C19">
-        <v>6.411226022026455</v>
+        <v>28.85051709911903</v>
       </c>
       <c r="D19">
-        <v>0.0004912849805087036</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E19">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F19">
-        <v>0.3198418685641219</v>
+        <v>1.439288408538548</v>
       </c>
       <c r="G19">
-        <v>2.161355762466957</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="H19">
-        <v>0.1286121113747446</v>
+        <v>0.578754501186351</v>
       </c>
       <c r="I19">
-        <v>3.624791224812312</v>
+        <v>16.31156051165541</v>
       </c>
       <c r="J19">
-        <v>0.3806244787980805</v>
+        <v>1.712810154591362</v>
       </c>
       <c r="K19">
-        <v>1.916965009048762</v>
+        <v>8.626342540719429</v>
       </c>
       <c r="L19">
-        <v>0.4411077328247617</v>
+        <v>1.984984797711428</v>
       </c>
       <c r="M19">
-        <v>2.686699935819557</v>
+        <v>12.090149711188</v>
       </c>
       <c r="N19">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O19">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P19">
-        <v>18.64551173503729</v>
+        <v>83.90480280766778</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1344,43 +1344,43 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>0.3055981322697103</v>
+        <v>1.375191595213697</v>
       </c>
       <c r="C20">
-        <v>7.788996657132425</v>
+        <v>35.0504849570959</v>
       </c>
       <c r="D20">
-        <v>0.001193120666949709</v>
+        <v>0.005369043001273689</v>
       </c>
       <c r="E20">
-        <v>0.4315533326192101</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="F20">
-        <v>0.2583338169171753</v>
+        <v>1.162502176127289</v>
       </c>
       <c r="G20">
-        <v>1.745710423531003</v>
+        <v>7.855696905889514</v>
       </c>
       <c r="H20">
-        <v>0.1136572147032627</v>
+        <v>0.5114574661646821</v>
       </c>
       <c r="I20">
-        <v>3.20330387308995</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="J20">
-        <v>0.2980794111069305</v>
+        <v>1.341357349981187</v>
       </c>
       <c r="K20">
-        <v>1.50123765768879</v>
+        <v>6.755569459599553</v>
       </c>
       <c r="L20">
-        <v>0.3346334524877502</v>
+        <v>1.505850536194876</v>
       </c>
       <c r="M20">
-        <v>2.03818615820794</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="P20">
-        <v>18.0204832504211</v>
+        <v>81.09217462689493</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1388,49 +1388,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>0.329382892564287</v>
+        <v>1.482223016539292</v>
       </c>
       <c r="C21">
-        <v>8.395215736579051</v>
+        <v>37.77847081460573</v>
       </c>
       <c r="D21">
-        <v>0.001614222078814312</v>
+        <v>0.007263999354664404</v>
       </c>
       <c r="E21">
-        <v>0.5838662735436371</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="F21">
-        <v>0.4182547511992363</v>
+        <v>1.882146380396563</v>
       </c>
       <c r="G21">
-        <v>2.826388304764481</v>
+        <v>12.71874737144017</v>
       </c>
       <c r="H21">
-        <v>0.09272035936318798</v>
+        <v>0.4172416171343458</v>
       </c>
       <c r="I21">
-        <v>2.613221580678643</v>
+        <v>11.7594971130539</v>
       </c>
       <c r="J21">
-        <v>0.3576952933283167</v>
+        <v>1.609628819977425</v>
       </c>
       <c r="K21">
-        <v>1.801485189226548</v>
+        <v>8.106683351519463</v>
       </c>
       <c r="L21">
-        <v>0.4106865098713298</v>
+        <v>1.848089294420984</v>
       </c>
       <c r="M21">
-        <v>2.50141028507338</v>
+        <v>11.25634628283021</v>
       </c>
       <c r="N21">
-        <v>0.02580726519106162</v>
+        <v>0.1161326933597773</v>
       </c>
       <c r="O21">
-        <v>0.4078607779176843</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="P21">
-        <v>20.76560944137966</v>
+        <v>93.44524248620849</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1438,49 +1438,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>0.2901020005626378</v>
+        <v>1.30545900253187</v>
       </c>
       <c r="C22">
-        <v>7.39403574173538</v>
+        <v>33.27316083780921</v>
       </c>
       <c r="D22">
-        <v>0.002245874196611216</v>
+        <v>0.01010643388475047</v>
       </c>
       <c r="E22">
-        <v>0.8123356849302777</v>
+        <v>3.65551058218625</v>
       </c>
       <c r="F22">
-        <v>0.5412708544931293</v>
+        <v>2.435718845219083</v>
       </c>
       <c r="G22">
-        <v>3.657678982636388</v>
+        <v>16.45955542186375</v>
       </c>
       <c r="H22">
-        <v>0.07776546269170606</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I22">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J22">
-        <v>0.5869871480259555</v>
+        <v>2.641442166116799</v>
       </c>
       <c r="K22">
-        <v>2.956283387448694</v>
+        <v>13.30327524351912</v>
       </c>
       <c r="L22">
-        <v>0.9278473000796709</v>
+        <v>4.17531285035852</v>
       </c>
       <c r="M22">
-        <v>5.651334347758377</v>
+        <v>25.4310045649127</v>
       </c>
       <c r="N22">
-        <v>0.01146989564047183</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O22">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P22">
-        <v>25.28236236600788</v>
+        <v>113.7706306470355</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1488,49 +1488,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.2421721048175064</v>
+        <v>1.089774471678779</v>
       </c>
       <c r="C23">
-        <v>6.172412445274749</v>
+        <v>27.77585600373636</v>
       </c>
       <c r="D23">
-        <v>0.002035323490678915</v>
+        <v>0.009158955708055116</v>
       </c>
       <c r="E23">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="F23">
-        <v>0.2583338169171753</v>
+        <v>1.162502176127289</v>
       </c>
       <c r="G23">
-        <v>1.745710423531003</v>
+        <v>7.855696905889514</v>
       </c>
       <c r="H23">
-        <v>0.06879252468881693</v>
+        <v>0.3095663610996759</v>
       </c>
       <c r="I23">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="J23">
-        <v>0.619088007683625</v>
+        <v>2.785896034576312</v>
       </c>
       <c r="K23">
-        <v>3.117955135199794</v>
+        <v>14.03079810839907</v>
       </c>
       <c r="L23">
-        <v>1.186427695183841</v>
+        <v>5.338924628327284</v>
       </c>
       <c r="M23">
-        <v>7.226296379100877</v>
+        <v>32.51833370595395</v>
       </c>
       <c r="N23">
-        <v>0.02293979128094366</v>
+        <v>0.1032290607642464</v>
       </c>
       <c r="O23">
-        <v>0.3625429137046082</v>
+        <v>1.631443111670737</v>
       </c>
       <c r="P23">
-        <v>23.69972759326455</v>
+        <v>106.6487741696905</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1538,49 +1538,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.22523447248652</v>
+        <v>1.01355512618934</v>
       </c>
       <c r="C24">
-        <v>5.740710979608215</v>
+        <v>25.83319940823696</v>
       </c>
       <c r="D24">
-        <v>0.002035323490678915</v>
+        <v>0.009158955708055116</v>
       </c>
       <c r="E24">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="F24">
-        <v>0.2952386479053432</v>
+        <v>1.328573915574045</v>
       </c>
       <c r="G24">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="H24">
-        <v>0.0658015453545205</v>
+        <v>0.2961069540953423</v>
       </c>
       <c r="I24">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="J24">
-        <v>0.5915729851199082</v>
+        <v>2.662078433039587</v>
       </c>
       <c r="K24">
-        <v>2.979379351413137</v>
+        <v>13.40720708135911</v>
       </c>
       <c r="L24">
-        <v>1.414586867334579</v>
+        <v>6.36564090300561</v>
       </c>
       <c r="M24">
-        <v>8.615968759697198</v>
+        <v>38.7718594186374</v>
       </c>
       <c r="N24">
-        <v>0.01433736955058979</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O24">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P24">
-        <v>24.7572768119651</v>
+        <v>111.407745653843</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1588,49 +1588,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.2418117296615279</v>
+        <v>1.088152783476876</v>
       </c>
       <c r="C25">
-        <v>6.163227307707379</v>
+        <v>27.73452288468319</v>
       </c>
       <c r="D25">
-        <v>0.00273715917711992</v>
+        <v>0.01231721629703964</v>
       </c>
       <c r="E25">
-        <v>0.990034116008776</v>
+        <v>4.455153522039491</v>
       </c>
       <c r="F25">
-        <v>0.3567466995522897</v>
+        <v>1.605360147985304</v>
       </c>
       <c r="G25">
-        <v>2.410742965828528</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="H25">
-        <v>0.06879252468881693</v>
+        <v>0.3095663610996759</v>
       </c>
       <c r="I25">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="J25">
-        <v>0.4860987319589944</v>
+        <v>2.187444293815475</v>
       </c>
       <c r="K25">
-        <v>2.448172180230949</v>
+        <v>11.01677481103927</v>
       </c>
       <c r="L25">
-        <v>1.460218701764728</v>
+        <v>6.570984157941276</v>
       </c>
       <c r="M25">
-        <v>8.893903235816465</v>
+        <v>40.02256456117409</v>
       </c>
       <c r="N25">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O25">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P25">
-        <v>25.50951250844163</v>
+        <v>114.7928062879873</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1638,49 +1638,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.2692002415158888</v>
+        <v>1.211401086821499</v>
       </c>
       <c r="C26">
-        <v>6.861297762827734</v>
+        <v>30.87583993272481</v>
       </c>
       <c r="D26">
-        <v>0.003298627726272724</v>
+        <v>0.01484382476822726</v>
       </c>
       <c r="E26">
-        <v>1.193118037241345</v>
+        <v>5.369031167586055</v>
       </c>
       <c r="F26">
-        <v>0.4674611925167936</v>
+        <v>2.103575366325571</v>
       </c>
       <c r="G26">
-        <v>3.158904575913243</v>
+        <v>14.2150705916096</v>
       </c>
       <c r="H26">
-        <v>0.06281056602022411</v>
+        <v>0.2826475470910085</v>
       </c>
       <c r="I26">
-        <v>1.77024687723392</v>
+        <v>7.96611094755264</v>
       </c>
       <c r="J26">
-        <v>0.5686437996501448</v>
+        <v>2.55889709842565</v>
       </c>
       <c r="K26">
-        <v>2.863899531590922</v>
+        <v>12.88754789215915</v>
       </c>
       <c r="L26">
-        <v>1.353744421427716</v>
+        <v>6.091849896424725</v>
       </c>
       <c r="M26">
-        <v>8.245389458204844</v>
+        <v>37.10425256192182</v>
       </c>
       <c r="N26">
-        <v>0.01146989564047183</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O26">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P26">
-        <v>27.01075644436182</v>
+        <v>121.5484039996282</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1688,49 +1688,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.265956865112083</v>
+        <v>1.196805893004372</v>
       </c>
       <c r="C27">
-        <v>6.778631524721376</v>
+        <v>30.5038418612462</v>
       </c>
       <c r="D27">
-        <v>0.003017893451696322</v>
+        <v>0.01358052053263345</v>
       </c>
       <c r="E27">
-        <v>1.091576076625061</v>
+        <v>4.912092344812774</v>
       </c>
       <c r="F27">
-        <v>0.4305563615286256</v>
+        <v>1.937503626878815</v>
       </c>
       <c r="G27">
-        <v>2.909517372551673</v>
+        <v>13.09282817648253</v>
       </c>
       <c r="H27">
-        <v>0.05682860735163134</v>
+        <v>0.2557287330823411</v>
       </c>
       <c r="I27">
-        <v>1.601651936544975</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="J27">
-        <v>0.5732296367440974</v>
+        <v>2.579533365348438</v>
       </c>
       <c r="K27">
-        <v>2.886995495555365</v>
+        <v>12.99147972999914</v>
       </c>
       <c r="L27">
-        <v>0.9278473000796709</v>
+        <v>4.17531285035852</v>
       </c>
       <c r="M27">
-        <v>5.651334347758377</v>
+        <v>25.4310045649127</v>
       </c>
       <c r="N27">
-        <v>0.0487470564720053</v>
+        <v>0.2193617541240237</v>
       </c>
       <c r="O27">
-        <v>0.7704036916222926</v>
+        <v>3.466816612300316</v>
       </c>
       <c r="P27">
-        <v>23.99629416611893</v>
+        <v>107.9833237475352</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1738,49 +1738,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.2774888701033927</v>
+        <v>1.248699915465267</v>
       </c>
       <c r="C28">
-        <v>7.072555926877318</v>
+        <v>31.82650167094792</v>
       </c>
       <c r="D28">
-        <v>0.002947709883052221</v>
+        <v>0.01326469447373499</v>
       </c>
       <c r="E28">
-        <v>1.066190586470989</v>
+        <v>4.797857639119453</v>
       </c>
       <c r="F28">
-        <v>0.4674611925167936</v>
+        <v>2.103575366325571</v>
       </c>
       <c r="G28">
-        <v>3.158904575913243</v>
+        <v>14.2150705916096</v>
       </c>
       <c r="H28">
-        <v>0.07178350402311326</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I28">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J28">
-        <v>0.554886288368286</v>
+        <v>2.496988297657287</v>
       </c>
       <c r="K28">
-        <v>2.794611639697593</v>
+        <v>12.57575237863917</v>
       </c>
       <c r="L28">
-        <v>1.140795860753694</v>
+        <v>5.133581373391624</v>
       </c>
       <c r="M28">
-        <v>6.948361902981611</v>
+        <v>31.26762856341726</v>
       </c>
       <c r="N28">
-        <v>0.02007231737082569</v>
+        <v>0.09032542816871564</v>
       </c>
       <c r="O28">
-        <v>0.3172250494915323</v>
+        <v>1.427512722711895</v>
       </c>
       <c r="P28">
-        <v>25.91642471271879</v>
+        <v>116.6239112072345</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1788,49 +1788,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>0.2594701123044711</v>
+        <v>1.16761550537012</v>
       </c>
       <c r="C29">
-        <v>6.613299048508658</v>
+        <v>29.75984571828895</v>
       </c>
       <c r="D29">
-        <v>0.002526608471187618</v>
+        <v>0.01136973812034428</v>
       </c>
       <c r="E29">
-        <v>0.9138776455465625</v>
+        <v>4.112449404959531</v>
       </c>
       <c r="F29">
-        <v>0.4182547511992363</v>
+        <v>1.882146380396563</v>
       </c>
       <c r="G29">
-        <v>2.826388304764481</v>
+        <v>12.71874737144017</v>
       </c>
       <c r="H29">
-        <v>0.08075644202600243</v>
+        <v>0.363403989117011</v>
       </c>
       <c r="I29">
-        <v>2.276031699300755</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="J29">
-        <v>0.3806244787980805</v>
+        <v>1.712810154591362</v>
       </c>
       <c r="K29">
-        <v>1.916965009048762</v>
+        <v>8.626342540719429</v>
       </c>
       <c r="L29">
-        <v>0.9278473000796709</v>
+        <v>4.17531285035852</v>
       </c>
       <c r="M29">
-        <v>5.651334347758377</v>
+        <v>25.4310045649127</v>
       </c>
       <c r="N29">
-        <v>0.01433736955058979</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O29">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P29">
-        <v>22.50830243842222</v>
+        <v>101.2873609729</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1838,49 +1838,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>0.2951472527463359</v>
+        <v>1.328162637358511</v>
       </c>
       <c r="C30">
-        <v>7.522627667678602</v>
+        <v>33.85182450455372</v>
       </c>
       <c r="D30">
-        <v>0.001122937098305608</v>
+        <v>0.005053216942375235</v>
       </c>
       <c r="E30">
-        <v>0.4061678424651389</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="F30">
-        <v>0.4797628028461828</v>
+        <v>2.158932612807822</v>
       </c>
       <c r="G30">
-        <v>3.242033643700435</v>
+        <v>14.58915139665196</v>
       </c>
       <c r="H30">
-        <v>0.05682860735163134</v>
+        <v>0.2557287330823411</v>
       </c>
       <c r="I30">
-        <v>1.601651936544975</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="J30">
-        <v>0.3668669675162222</v>
+        <v>1.650901353823</v>
       </c>
       <c r="K30">
-        <v>1.847677117155434</v>
+        <v>8.314547027199449</v>
       </c>
       <c r="L30">
-        <v>0.8822154656495235</v>
+        <v>3.969969595422855</v>
       </c>
       <c r="M30">
-        <v>5.373399871639114</v>
+        <v>24.18029942237601</v>
       </c>
       <c r="N30">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O30">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P30">
-        <v>22.17187278863829</v>
+        <v>99.77342754887231</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1888,43 +1888,43 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>0.2875793744707886</v>
+        <v>1.29410718511855</v>
       </c>
       <c r="C31">
-        <v>7.329739778763768</v>
+        <v>32.98382900443696</v>
       </c>
       <c r="D31">
-        <v>0.000140367137288201</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E31">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F31">
-        <v>0.2091273755996182</v>
+        <v>0.9410731901982817</v>
       </c>
       <c r="G31">
-        <v>1.41319415238224</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="H31">
-        <v>0.1076752560346699</v>
+        <v>0.4845386521560146</v>
       </c>
       <c r="I31">
-        <v>3.034708932401005</v>
+        <v>13.65619019580452</v>
       </c>
       <c r="J31">
-        <v>0.1926051579460167</v>
+        <v>0.866723210757075</v>
       </c>
       <c r="K31">
-        <v>0.9700304865066025</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="L31">
-        <v>0.6844775164522164</v>
+        <v>3.080148824034973</v>
       </c>
       <c r="M31">
-        <v>4.169017141788967</v>
+        <v>18.76057713805035</v>
       </c>
       <c r="P31">
-        <v>18.44906651979132</v>
+        <v>83.02079933906096</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1932,43 +1932,43 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.2558663607446869</v>
+        <v>1.151398623351091</v>
       </c>
       <c r="C32">
-        <v>6.521447672834929</v>
+        <v>29.34651452775718</v>
       </c>
       <c r="D32">
-        <v>0.0006316521177969044</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E32">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F32">
-        <v>0.2706354272465646</v>
+        <v>1.217859422609542</v>
       </c>
       <c r="G32">
-        <v>1.828839491318194</v>
+        <v>8.229777710931875</v>
       </c>
       <c r="H32">
-        <v>0.1256211320404482</v>
+        <v>0.565295094182017</v>
       </c>
       <c r="I32">
-        <v>3.54049375446784</v>
+        <v>15.93222189510528</v>
       </c>
       <c r="J32">
-        <v>0.2017768321339222</v>
+        <v>0.90799574460265</v>
       </c>
       <c r="K32">
-        <v>1.016222414435489</v>
+        <v>4.573000864959698</v>
       </c>
       <c r="L32">
-        <v>0.532371401685057</v>
+        <v>2.395671307582756</v>
       </c>
       <c r="M32">
-        <v>3.242568888058086</v>
+        <v>14.59155999626138</v>
       </c>
       <c r="P32">
-        <v>17.76494443846965</v>
+        <v>79.94224997311343</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1976,43 +1976,43 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.2039723382837926</v>
+        <v>0.9178755222770668</v>
       </c>
       <c r="C33">
-        <v>5.198787863133197</v>
+        <v>23.3945453840994</v>
       </c>
       <c r="D33">
-        <v>0.001122937098305608</v>
+        <v>0.005053216942375235</v>
       </c>
       <c r="E33">
-        <v>0.4061678424651389</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="F33">
-        <v>0.282937037575954</v>
+        <v>1.273216669091793</v>
       </c>
       <c r="G33">
-        <v>1.911968559105385</v>
+        <v>8.603858515974228</v>
       </c>
       <c r="H33">
-        <v>0.1046842767003735</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I33">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J33">
-        <v>0.1146459273488194</v>
+        <v>0.5159066730696873</v>
       </c>
       <c r="K33">
-        <v>0.577399099111073</v>
+        <v>2.598295945999828</v>
       </c>
       <c r="L33">
-        <v>0.2281591721507387</v>
+        <v>1.026716274678324</v>
       </c>
       <c r="M33">
-        <v>1.389672380596322</v>
+        <v>6.253525712683452</v>
       </c>
       <c r="P33">
-        <v>13.36992889562563</v>
+        <v>60.16468003031536</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2020,43 +2020,43 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.1607273195663807</v>
+        <v>0.7232729380487133</v>
       </c>
       <c r="C34">
-        <v>4.09657135504842</v>
+        <v>18.4345710977179</v>
       </c>
       <c r="D34">
-        <v>0.0006316521177969044</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E34">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F34">
-        <v>0.1722225446114503</v>
+        <v>0.7750014507515259</v>
       </c>
       <c r="G34">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="H34">
-        <v>0.08673840069459521</v>
+        <v>0.3903228031256784</v>
       </c>
       <c r="I34">
-        <v>2.444626639989699</v>
+        <v>11.00081987995365</v>
       </c>
       <c r="J34">
-        <v>0.05961588222138611</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K34">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L34">
-        <v>0.2129485606740228</v>
+        <v>0.9582685230331025</v>
       </c>
       <c r="M34">
-        <v>1.297027555223235</v>
+        <v>5.836623998504554</v>
       </c>
       <c r="P34">
-        <v>10.22363380209205</v>
+        <v>46.00635210941425</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2064,43 +2064,43 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.1055899207016806</v>
+        <v>0.475154643157563</v>
       </c>
       <c r="C35">
-        <v>2.691245307240332</v>
+        <v>12.11060388258149</v>
       </c>
       <c r="D35">
-        <v>0.0004912849805087036</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E35">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F35">
-        <v>0.08611127230572516</v>
+        <v>0.387500725375763</v>
       </c>
       <c r="G35">
-        <v>0.5819034745103343</v>
+        <v>2.618565635296505</v>
       </c>
       <c r="H35">
-        <v>0.05981958668592775</v>
+        <v>0.2691881400866747</v>
       </c>
       <c r="I35">
-        <v>1.685949406889448</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="J35">
-        <v>0.09630257897300834</v>
+        <v>0.4333616053785375</v>
       </c>
       <c r="K35">
-        <v>0.4850152432533013</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="L35">
-        <v>0.3194228410110341</v>
+        <v>1.437402784549655</v>
       </c>
       <c r="M35">
-        <v>1.945541332834851</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="P35">
-        <v>8.23509068046465</v>
+        <v>37.05790806209092</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2108,49 +2108,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.07567878275547074</v>
+        <v>0.3405545223996183</v>
       </c>
       <c r="C36">
-        <v>1.92887888914836</v>
+        <v>8.679955001167619</v>
       </c>
       <c r="D36">
-        <v>0.000280734274576402</v>
+        <v>0.001263304235593809</v>
       </c>
       <c r="E36">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="F36">
-        <v>0.0738096619763358</v>
+        <v>0.3321434788935111</v>
       </c>
       <c r="G36">
-        <v>0.4987744067231438</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="H36">
-        <v>0.0239278346743711</v>
+        <v>0.1076752560346699</v>
       </c>
       <c r="I36">
-        <v>0.6743797627557792</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="J36">
-        <v>0.06878755640929164</v>
+        <v>0.3095440038418125</v>
       </c>
       <c r="K36">
-        <v>0.3464394594666437</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="L36">
-        <v>0.1673167262438751</v>
+        <v>0.752925268097438</v>
       </c>
       <c r="M36">
-        <v>1.01909307910397</v>
+        <v>4.585918855967866</v>
       </c>
       <c r="N36">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O36">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P36">
-        <v>5.027094192271296</v>
+        <v>22.62192386522083</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2158,37 +2158,37 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.04576764480926088</v>
+        <v>0.2059544016416739</v>
       </c>
       <c r="C37">
-        <v>1.166512471056388</v>
+        <v>5.249306119753752</v>
       </c>
       <c r="D37">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E37">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="H37">
-        <v>0.002990979334296387</v>
+        <v>0.01345940700433374</v>
       </c>
       <c r="I37">
-        <v>0.08429747034447239</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="J37">
-        <v>0.06878755640929164</v>
+        <v>0.3095440038418125</v>
       </c>
       <c r="K37">
-        <v>0.3464394594666437</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="L37">
-        <v>0.182527337720591</v>
+        <v>0.8213730197426595</v>
       </c>
       <c r="M37">
-        <v>1.111737904477058</v>
+        <v>5.002820570146761</v>
       </c>
       <c r="P37">
-        <v>3.085427844786148</v>
+        <v>13.88442530153767</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2196,43 +2196,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.03243376403805889</v>
+        <v>0.145951938171265</v>
       </c>
       <c r="C38">
-        <v>0.8266623810635823</v>
+        <v>3.719980714786119</v>
       </c>
       <c r="D38">
-        <v>0.0004211014118646031</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E38">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F38">
-        <v>0.0369048309881679</v>
+        <v>0.1660717394467556</v>
       </c>
       <c r="G38">
-        <v>0.2493872033615719</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="H38">
-        <v>0.002990979334296387</v>
+        <v>0.01345940700433374</v>
       </c>
       <c r="I38">
-        <v>0.08429747034447239</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="J38">
-        <v>0.07337339350324444</v>
+        <v>0.3301802707645999</v>
       </c>
       <c r="K38">
-        <v>0.3695354234310867</v>
+        <v>1.66290940543989</v>
       </c>
       <c r="L38">
-        <v>0.06084244590686365</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M38">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="P38">
-        <v>2.259741235799988</v>
+        <v>10.16883556109995</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2240,37 +2240,37 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.0223432596706628</v>
+        <v>0.1005446685179825</v>
       </c>
       <c r="C39">
-        <v>0.5694785291771345</v>
+        <v>2.562653381297106</v>
       </c>
       <c r="D39">
-        <v>0.000140367137288201</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E39">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F39">
-        <v>0.0615080516469465</v>
+        <v>0.2767862324112593</v>
       </c>
       <c r="G39">
-        <v>0.4156453389359533</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="J39">
-        <v>0.009171674187905555</v>
+        <v>0.04127253384557499</v>
       </c>
       <c r="K39">
-        <v>0.04619192792888584</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="L39">
-        <v>0.1521061147671592</v>
+        <v>0.6844775164522163</v>
       </c>
       <c r="M39">
-        <v>0.926448253730882</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="P39">
-        <v>2.25380449749096</v>
+        <v>10.14212023870932</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,43 +2278,43 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.01801875779892162</v>
+        <v>0.08108441009514721</v>
       </c>
       <c r="C40">
-        <v>0.4592568783686573</v>
+        <v>2.066655952658956</v>
       </c>
       <c r="D40">
-        <v>0.000280734274576402</v>
+        <v>0.001263304235593809</v>
       </c>
       <c r="E40">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="F40">
-        <v>0.01230161032938931</v>
+        <v>0.05535724648225186</v>
       </c>
       <c r="G40">
-        <v>0.08312906778719063</v>
+        <v>0.3740808050423579</v>
       </c>
       <c r="H40">
-        <v>0.01495489667148194</v>
+        <v>0.06729703502166867</v>
       </c>
       <c r="I40">
-        <v>0.4214873517223619</v>
+        <v>1.896693082750628</v>
       </c>
       <c r="J40">
-        <v>0.041272533845575</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K40">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L40">
-        <v>0.07605305738357961</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M40">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P40">
-        <v>1.899384651343446</v>
+        <v>8.547230931045503</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2322,43 +2322,43 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.04756952058915305</v>
+        <v>0.2140628426511889</v>
       </c>
       <c r="C41">
-        <v>1.212438158893254</v>
+        <v>5.455971715019643</v>
       </c>
       <c r="D41">
-        <v>0.000280734274576402</v>
+        <v>0.001263304235593809</v>
       </c>
       <c r="E41">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="F41">
-        <v>0.04920644131755723</v>
+        <v>0.2214289859290074</v>
       </c>
       <c r="G41">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H41">
-        <v>0.008972938002889157</v>
+        <v>0.04037822101300122</v>
       </c>
       <c r="I41">
-        <v>0.2528924110334171</v>
+        <v>1.138015849650378</v>
       </c>
       <c r="J41">
-        <v>0.05961588222138611</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K41">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L41">
-        <v>0.06084244590686365</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M41">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="P41">
-        <v>2.796703597034255</v>
+        <v>12.58516618665415</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2366,43 +2366,43 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.1268520549044081</v>
+        <v>0.5708342470698367</v>
       </c>
       <c r="C42">
-        <v>3.233168423715344</v>
+        <v>14.54925790671906</v>
       </c>
       <c r="D42">
-        <v>7.01835686441005E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E42">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F42">
-        <v>0.2214289859290075</v>
+        <v>0.9964304366805334</v>
       </c>
       <c r="G42">
-        <v>1.496323220169431</v>
+        <v>6.733454490762441</v>
       </c>
       <c r="H42">
-        <v>0.03290077267726025</v>
+        <v>0.1480534770476711</v>
       </c>
       <c r="I42">
-        <v>0.9272721737891965</v>
+        <v>4.172724782051384</v>
       </c>
       <c r="J42">
-        <v>0.1926051579460167</v>
+        <v>0.866723210757075</v>
       </c>
       <c r="K42">
-        <v>0.9700304865066025</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="L42">
-        <v>0.2281591721507387</v>
+        <v>1.026716274678324</v>
       </c>
       <c r="M42">
-        <v>1.389672380596322</v>
+        <v>6.253525712683452</v>
       </c>
       <c r="P42">
-        <v>8.843868502107043</v>
+        <v>39.79740825948171</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2410,43 +2410,43 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.2082968401555337</v>
+        <v>0.9373357806999015</v>
       </c>
       <c r="C43">
-        <v>5.309009513941675</v>
+        <v>23.89054281273754</v>
       </c>
       <c r="D43">
-        <v>0.0004211014118646031</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E43">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F43">
-        <v>0.2583338169171753</v>
+        <v>1.162502176127289</v>
       </c>
       <c r="G43">
-        <v>1.745710423531003</v>
+        <v>7.855696905889514</v>
       </c>
       <c r="H43">
-        <v>0.1136572147032627</v>
+        <v>0.5114574661646821</v>
       </c>
       <c r="I43">
-        <v>3.20330387308995</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="J43">
-        <v>0.3989678271738916</v>
+        <v>1.795355222282512</v>
       </c>
       <c r="K43">
-        <v>2.009348864906534</v>
+        <v>9.042069892079404</v>
       </c>
       <c r="L43">
-        <v>0.4258971213480456</v>
+        <v>1.916537046066205</v>
       </c>
       <c r="M43">
-        <v>2.594055110446469</v>
+        <v>11.67324799700911</v>
       </c>
       <c r="P43">
-        <v>16.41931464854983</v>
+        <v>73.88691591847424</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,49 +2454,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>0.2962283782142712</v>
+        <v>1.333027701964221</v>
       </c>
       <c r="C44">
-        <v>7.550183080380722</v>
+        <v>33.97582386171324</v>
       </c>
       <c r="D44">
-        <v>0.000701835686441005</v>
+        <v>0.003158260588984523</v>
       </c>
       <c r="E44">
-        <v>0.2538549015407118</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="F44">
-        <v>0.2091273755996182</v>
+        <v>0.9410731901982817</v>
       </c>
       <c r="G44">
-        <v>1.41319415238224</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="H44">
-        <v>0.1136572147032627</v>
+        <v>0.5114574661646821</v>
       </c>
       <c r="I44">
-        <v>3.20330387308995</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="J44">
-        <v>0.2109485063218278</v>
+        <v>0.9492682784482249</v>
       </c>
       <c r="K44">
-        <v>1.062414342364374</v>
+        <v>4.780864540639683</v>
       </c>
       <c r="L44">
-        <v>0.3194228410110341</v>
+        <v>1.437402784549655</v>
       </c>
       <c r="M44">
-        <v>1.945541332834851</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="N44">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O44">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P44">
-        <v>16.67494851037569</v>
+        <v>75.03726829669061</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2504,49 +2504,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>0.2839756229110046</v>
+        <v>1.27789030309952</v>
       </c>
       <c r="C45">
-        <v>7.237888403090034</v>
+        <v>32.57049781390516</v>
       </c>
       <c r="D45">
-        <v>0.002245874196611216</v>
+        <v>0.01010643388475047</v>
       </c>
       <c r="E45">
-        <v>0.8123356849302777</v>
+        <v>3.65551058218625</v>
       </c>
       <c r="F45">
-        <v>0.3075402582347326</v>
+        <v>1.383931162056297</v>
       </c>
       <c r="G45">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H45">
-        <v>0.0658015453545205</v>
+        <v>0.2961069540953423</v>
       </c>
       <c r="I45">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="J45">
-        <v>0.3531094562343638</v>
+        <v>1.588992553054637</v>
       </c>
       <c r="K45">
-        <v>1.778389225262105</v>
+        <v>8.00275151367947</v>
       </c>
       <c r="L45">
-        <v>0.5780032361152045</v>
+        <v>2.601014562518421</v>
       </c>
       <c r="M45">
-        <v>3.520503364177351</v>
+        <v>15.84226513879808</v>
       </c>
       <c r="N45">
-        <v>0.01433736955058979</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O45">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P45">
-        <v>19.11349040338033</v>
+        <v>86.01070681521152</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2554,49 +2554,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>0.2681191160479536</v>
+        <v>1.206536022215791</v>
       </c>
       <c r="C46">
-        <v>6.833742350125617</v>
+        <v>30.75184057556528</v>
       </c>
       <c r="D46">
-        <v>0.00140367137288201</v>
+        <v>0.006316521177969045</v>
       </c>
       <c r="E46">
-        <v>0.5077098030814237</v>
+        <v>2.284694113866406</v>
       </c>
       <c r="F46">
-        <v>0.3321434788935113</v>
+        <v>1.494645655020801</v>
       </c>
       <c r="G46">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="H46">
-        <v>0.09571133869748438</v>
+        <v>0.4307010241386797</v>
       </c>
       <c r="I46">
-        <v>2.697519051023117</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="J46">
-        <v>0.4677553835831834</v>
+        <v>2.104899226124325</v>
       </c>
       <c r="K46">
-        <v>2.355788324373178</v>
+        <v>10.6010474596793</v>
       </c>
       <c r="L46">
-        <v>0.7757411853125117</v>
+        <v>3.490835333906303</v>
       </c>
       <c r="M46">
-        <v>4.724886094027497</v>
+        <v>21.26198742312373</v>
       </c>
       <c r="N46">
-        <v>0.01146989564047183</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O46">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P46">
-        <v>21.49774597928528</v>
+        <v>96.73985690678377</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2604,49 +2604,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.2075760898435769</v>
+        <v>0.9340924042960963</v>
       </c>
       <c r="C47">
-        <v>5.290639238806929</v>
+        <v>23.80787657463119</v>
       </c>
       <c r="D47">
-        <v>0.002245874196611216</v>
+        <v>0.01010643388475047</v>
       </c>
       <c r="E47">
-        <v>0.8123356849302777</v>
+        <v>3.65551058218625</v>
       </c>
       <c r="F47">
-        <v>0.246032206587786</v>
+        <v>1.107144929645037</v>
       </c>
       <c r="G47">
-        <v>1.662581355743813</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="H47">
-        <v>0.08075644202600243</v>
+        <v>0.363403989117011</v>
       </c>
       <c r="I47">
-        <v>2.276031699300755</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="J47">
-        <v>0.5778154738380499</v>
+        <v>2.600169632271224</v>
       </c>
       <c r="K47">
-        <v>2.910091459519808</v>
+        <v>13.09541156783914</v>
       </c>
       <c r="L47">
-        <v>0.8365836312193751</v>
+        <v>3.764626340487189</v>
       </c>
       <c r="M47">
-        <v>5.095465395519851</v>
+        <v>22.92959427983932</v>
       </c>
       <c r="N47">
-        <v>0.04301210865176937</v>
+        <v>0.1935544889329621</v>
       </c>
       <c r="O47">
-        <v>0.6797679631961407</v>
+        <v>3.058955834382633</v>
       </c>
       <c r="P47">
-        <v>20.72093462338075</v>
+        <v>93.24420580521335</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2654,49 +2654,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.2291985992022829</v>
+        <v>1.031393696410273</v>
       </c>
       <c r="C48">
-        <v>5.841747492849315</v>
+        <v>26.28786371782193</v>
       </c>
       <c r="D48">
-        <v>0.002666975608475819</v>
+        <v>0.01200139023814119</v>
       </c>
       <c r="E48">
-        <v>0.9646486258547048</v>
+        <v>4.340918816346171</v>
       </c>
       <c r="F48">
-        <v>0.4182547511992363</v>
+        <v>1.882146380396563</v>
       </c>
       <c r="G48">
-        <v>2.826388304764481</v>
+        <v>12.71874737144017</v>
       </c>
       <c r="H48">
-        <v>0.07178350402311326</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I48">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J48">
-        <v>0.4860987319589944</v>
+        <v>2.187444293815475</v>
       </c>
       <c r="K48">
-        <v>2.448172180230949</v>
+        <v>11.01677481103927</v>
       </c>
       <c r="L48">
-        <v>0.6388456820220683</v>
+        <v>2.874805569099309</v>
       </c>
       <c r="M48">
-        <v>3.891082665669702</v>
+        <v>17.50987199551366</v>
       </c>
       <c r="N48">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O48">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P48">
-        <v>19.93839747789705</v>
+        <v>89.72278865053674</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2704,49 +2704,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.2418117296615279</v>
+        <v>1.088152783476876</v>
       </c>
       <c r="C49">
-        <v>6.163227307707379</v>
+        <v>27.73452288468319</v>
       </c>
       <c r="D49">
-        <v>0.00273715917711992</v>
+        <v>0.01231721629703964</v>
       </c>
       <c r="E49">
-        <v>0.990034116008776</v>
+        <v>4.455153522039491</v>
       </c>
       <c r="F49">
-        <v>0.3567466995522897</v>
+        <v>1.605360147985304</v>
       </c>
       <c r="G49">
-        <v>2.410742965828528</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="H49">
-        <v>0.06879252468881693</v>
+        <v>0.3095663610996759</v>
       </c>
       <c r="I49">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="J49">
-        <v>0.4860987319589944</v>
+        <v>2.187444293815475</v>
       </c>
       <c r="K49">
-        <v>2.448172180230949</v>
+        <v>11.01677481103927</v>
       </c>
       <c r="L49">
-        <v>1.460218701764728</v>
+        <v>6.570984157941276</v>
       </c>
       <c r="M49">
-        <v>8.893903235816465</v>
+        <v>40.02256456117409</v>
       </c>
       <c r="N49">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O49">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P49">
-        <v>25.50951250844163</v>
+        <v>114.7928062879873</v>
       </c>
     </row>
   </sheetData>
